--- a/data/remix_songs_data.xlsx
+++ b/data/remix_songs_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5FB981FC6D138C3DFF2C4CE925AC198978781683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FD8C422-AC7B-4029-AF37-D9D408DF0822}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -820,8 +826,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +890,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -930,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +976,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1028,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,14 +1221,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,57 +1292,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F2">
-        <v>306582</v>
+        <v>212741</v>
       </c>
       <c r="G2">
         <v>59</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0.00764</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="J2">
-        <v>0.623</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="K2">
-        <v>0.924</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="L2">
-        <v>2.73E-06</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="M2">
-        <v>0.5570000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="N2">
-        <v>-4.481</v>
+        <v>-1.266</v>
       </c>
       <c r="O2">
-        <v>0.142</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="P2">
-        <v>135.968</v>
+        <v>129.999</v>
       </c>
       <c r="Q2">
-        <v>0.506</v>
+        <v>0.8</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -1302,7 +1354,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1328,22 +1380,22 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0638</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="J3">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="K3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="L3">
-        <v>0.000627</v>
+        <v>6.2699999999999995E-4</v>
       </c>
       <c r="M3">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="N3">
-        <v>-6.562</v>
+        <v>-6.5620000000000003</v>
       </c>
       <c r="O3">
         <v>0.114</v>
@@ -1352,7 +1404,7 @@
         <v>110.042</v>
       </c>
       <c r="Q3">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -1364,57 +1416,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="F4">
-        <v>199264</v>
+        <v>169727</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07870000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="J4">
-        <v>0.724</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="K4">
-        <v>0.848</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="L4">
-        <v>9.16E-05</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="M4">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>-4.724</v>
+        <v>-17.777999999999999</v>
       </c>
       <c r="O4">
-        <v>0.0522</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="P4">
-        <v>123.02</v>
+        <v>122.017</v>
       </c>
       <c r="Q4">
-        <v>0.781</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1426,57 +1478,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F5">
-        <v>212412</v>
+        <v>219491</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0399</v>
+        <v>0.121</v>
       </c>
       <c r="J5">
-        <v>0.73</v>
+        <v>0.751</v>
       </c>
       <c r="K5">
-        <v>0.58</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="L5">
-        <v>2.48E-05</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="M5">
-        <v>0.0703</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="N5">
-        <v>-7.976</v>
+        <v>-3.024</v>
       </c>
       <c r="O5">
-        <v>0.124</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="P5">
-        <v>167.915</v>
+        <v>104.018</v>
       </c>
       <c r="Q5">
-        <v>0.55</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1488,57 +1540,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F6">
-        <v>236325</v>
+        <v>164601</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>0.659</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="J6">
-        <v>0.325</v>
+        <v>0.746</v>
       </c>
       <c r="K6">
-        <v>0.421</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="L6">
-        <v>4.46E-06</v>
+        <v>5.6400000000000002E-5</v>
       </c>
       <c r="M6">
-        <v>0.0825</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N6">
-        <v>-8.635999999999999</v>
+        <v>-3.6269999999999998</v>
       </c>
       <c r="O6">
-        <v>0.0561</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="P6">
-        <v>170.363</v>
+        <v>131.97499999999999</v>
       </c>
       <c r="Q6">
-        <v>0.204</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1550,119 +1602,119 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7">
+        <v>300278</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.752</v>
+      </c>
+      <c r="K7">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="L7">
+        <v>1.35E-6</v>
+      </c>
+      <c r="M7">
+        <v>0.154</v>
+      </c>
+      <c r="N7">
+        <v>-4.6479999999999997</v>
+      </c>
+      <c r="O7">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="P7">
+        <v>89.991</v>
+      </c>
+      <c r="Q7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>177</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>209</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>261004</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>37</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="I7">
-        <v>0.0355</v>
-      </c>
-      <c r="J7">
-        <v>0.804</v>
-      </c>
-      <c r="K7">
-        <v>0.887</v>
-      </c>
-      <c r="L7">
-        <v>1.01E-06</v>
-      </c>
-      <c r="M7">
-        <v>0.212</v>
-      </c>
-      <c r="N7">
-        <v>-5.169</v>
-      </c>
-      <c r="O7">
-        <v>0.0418</v>
-      </c>
-      <c r="P7">
+      <c r="I8">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="L8">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="M8">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N8">
+        <v>-5.1689999999999996</v>
+      </c>
+      <c r="O8">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="P8">
         <v>126.011</v>
       </c>
-      <c r="Q7">
-        <v>0.915</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8">
-        <v>229208</v>
-      </c>
-      <c r="G8">
-        <v>54</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>0.163</v>
-      </c>
-      <c r="J8">
-        <v>0.583</v>
-      </c>
-      <c r="K8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L8">
-        <v>8.279999999999999E-05</v>
-      </c>
-      <c r="M8">
-        <v>0.577</v>
-      </c>
-      <c r="N8">
-        <v>-2.44</v>
-      </c>
-      <c r="O8">
-        <v>0.08160000000000001</v>
-      </c>
-      <c r="P8">
-        <v>136.056</v>
-      </c>
       <c r="Q8">
-        <v>0.492</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1674,57 +1726,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F9">
-        <v>207393</v>
+        <v>285773</v>
       </c>
       <c r="G9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>0.0735</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="J9">
-        <v>0.751</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="K9">
-        <v>0.8100000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="L9">
-        <v>6.61E-06</v>
+        <v>1.17E-5</v>
       </c>
       <c r="M9">
-        <v>0.552</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="N9">
-        <v>-6.076</v>
+        <v>-5.806</v>
       </c>
       <c r="O9">
-        <v>0.0456</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="P9">
-        <v>112.004</v>
+        <v>126.005</v>
       </c>
       <c r="Q9">
-        <v>0.882</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1736,57 +1788,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F10">
-        <v>215483</v>
+        <v>352388</v>
       </c>
       <c r="G10">
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0.195</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="J10">
-        <v>0.792</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="K10">
-        <v>0.703</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.13E-6</v>
       </c>
       <c r="M10">
-        <v>0.07199999999999999</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="N10">
-        <v>-4.343</v>
+        <v>-4.875</v>
       </c>
       <c r="O10">
-        <v>0.0368</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="P10">
-        <v>105.995</v>
+        <v>107.97499999999999</v>
       </c>
       <c r="Q10">
-        <v>0.634</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1798,60 +1850,60 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="F11">
-        <v>243602</v>
+        <v>258196</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>0.0491</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="J11">
-        <v>0.666</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="K11">
-        <v>0.919</v>
+        <v>0.753</v>
       </c>
       <c r="L11">
-        <v>5.73E-06</v>
+        <v>6.5300000000000002E-5</v>
       </c>
       <c r="M11">
-        <v>0.531</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N11">
-        <v>-5.389</v>
+        <v>-9.1829999999999998</v>
       </c>
       <c r="O11">
-        <v>0.06610000000000001</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="P11">
-        <v>102.756</v>
+        <v>101.973</v>
       </c>
       <c r="Q11">
-        <v>0.644</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1860,119 +1912,119 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F12">
-        <v>178352</v>
+        <v>212412</v>
       </c>
       <c r="G12">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.05</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="J12">
-        <v>0.794</v>
+        <v>0.73</v>
       </c>
       <c r="K12">
-        <v>0.781</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L12">
-        <v>0.0151</v>
+        <v>2.48E-5</v>
       </c>
       <c r="M12">
-        <v>0.139</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="N12">
-        <v>-4.854</v>
+        <v>-7.976</v>
       </c>
       <c r="O12">
-        <v>0.0536</v>
+        <v>0.124</v>
       </c>
       <c r="P12">
-        <v>102.982</v>
+        <v>167.91499999999999</v>
       </c>
       <c r="Q12">
-        <v>0.836</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R12">
         <v>4</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
         <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F13">
-        <v>212741</v>
+        <v>184432</v>
       </c>
       <c r="G13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>0.289</v>
+        <v>0.155</v>
       </c>
       <c r="J13">
-        <v>0.796</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="K13">
-        <v>0.978</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="L13">
-        <v>0.00254</v>
+        <v>7.6799999999999997E-5</v>
       </c>
       <c r="M13">
-        <v>0.346</v>
+        <v>0.107</v>
       </c>
       <c r="N13">
-        <v>-1.266</v>
+        <v>-3.665</v>
       </c>
       <c r="O13">
-        <v>0.0955</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="P13">
-        <v>129.999</v>
+        <v>104.054</v>
       </c>
       <c r="Q13">
-        <v>0.8</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="R13">
         <v>4</v>
@@ -1984,122 +2036,122 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F14">
-        <v>184432</v>
+        <v>201655</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>0.155</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="J14">
-        <v>0.725</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="K14">
-        <v>0.912</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="L14">
-        <v>7.68E-05</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="M14">
-        <v>0.107</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="N14">
-        <v>-3.665</v>
+        <v>-5.0919999999999996</v>
       </c>
       <c r="O14">
-        <v>0.0851</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P14">
-        <v>104.054</v>
+        <v>114.039</v>
       </c>
       <c r="Q14">
-        <v>0.674</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="R14">
         <v>4</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F15">
-        <v>191089</v>
+        <v>243602</v>
       </c>
       <c r="G15">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.163</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="J15">
-        <v>0.737</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="K15">
-        <v>0.961</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.7300000000000002E-6</v>
       </c>
       <c r="M15">
-        <v>0.361</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="N15">
-        <v>-0.155</v>
+        <v>-5.3890000000000002</v>
       </c>
       <c r="O15">
-        <v>0.0747</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="P15">
-        <v>108.014</v>
+        <v>102.756</v>
       </c>
       <c r="Q15">
-        <v>0.5669999999999999</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2108,57 +2160,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F16">
-        <v>152277</v>
+        <v>155172</v>
       </c>
       <c r="G16">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>0.43</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="J16">
-        <v>0.662</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="K16">
-        <v>0.598</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="L16">
-        <v>3.68E-06</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.08790000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="N16">
-        <v>-7.753</v>
+        <v>-7.5750000000000002</v>
       </c>
       <c r="O16">
-        <v>0.0459</v>
+        <v>5.45E-2</v>
       </c>
       <c r="P16">
-        <v>94.02500000000001</v>
+        <v>173.95500000000001</v>
       </c>
       <c r="Q16">
-        <v>0.653</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -2170,119 +2222,119 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17">
+        <v>235357</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L17">
+        <v>1.47E-3</v>
+      </c>
+      <c r="M17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N17">
+        <v>-5.3040000000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P17">
+        <v>131.95500000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.497</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
         <v>177</v>
       </c>
-      <c r="E17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17">
-        <v>146063</v>
-      </c>
-      <c r="G17">
-        <v>36</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>0.0351</v>
-      </c>
-      <c r="J17">
-        <v>0.629</v>
-      </c>
-      <c r="K17">
-        <v>0.957</v>
-      </c>
-      <c r="L17">
-        <v>0.000375</v>
-      </c>
-      <c r="M17">
-        <v>0.273</v>
-      </c>
-      <c r="N17">
-        <v>-5.466</v>
-      </c>
-      <c r="O17">
-        <v>0.0591</v>
-      </c>
-      <c r="P17">
-        <v>147.958</v>
-      </c>
-      <c r="Q17">
-        <v>0.652</v>
-      </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>182</v>
-      </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F18">
-        <v>219491</v>
+        <v>236325</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0.121</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="J18">
-        <v>0.751</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K18">
-        <v>0.975</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="L18">
-        <v>2.2E-06</v>
+        <v>4.4599999999999996E-6</v>
       </c>
       <c r="M18">
-        <v>0.204</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="N18">
-        <v>-3.024</v>
+        <v>-8.6359999999999992</v>
       </c>
       <c r="O18">
-        <v>0.0941</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="P18">
-        <v>104.018</v>
+        <v>170.363</v>
       </c>
       <c r="Q18">
-        <v>0.8179999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2294,119 +2346,119 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F19">
-        <v>176125</v>
+        <v>302935</v>
       </c>
       <c r="G19">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K19">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="L19">
+        <v>1.75E-4</v>
+      </c>
+      <c r="M19">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N19">
+        <v>-6.274</v>
+      </c>
+      <c r="O19">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="P19">
+        <v>118.03400000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0.0248</v>
-      </c>
-      <c r="J19">
-        <v>0.804</v>
-      </c>
-      <c r="K19">
-        <v>0.913</v>
-      </c>
-      <c r="L19">
-        <v>2.84E-05</v>
-      </c>
-      <c r="M19">
-        <v>0.391</v>
-      </c>
-      <c r="N19">
-        <v>-3.135</v>
-      </c>
-      <c r="O19">
-        <v>0.09329999999999999</v>
-      </c>
-      <c r="P19">
-        <v>119.993</v>
-      </c>
-      <c r="Q19">
-        <v>0.544</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
       <c r="T19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="F20">
-        <v>164601</v>
+        <v>170781</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>0.0764</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="J20">
-        <v>0.746</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="K20">
-        <v>0.925</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="L20">
-        <v>5.64E-05</v>
+        <v>1.9700000000000001E-5</v>
       </c>
       <c r="M20">
-        <v>0.29</v>
+        <v>0.128</v>
       </c>
       <c r="N20">
-        <v>-3.627</v>
+        <v>-2.774</v>
       </c>
       <c r="O20">
-        <v>0.0694</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="P20">
-        <v>131.975</v>
+        <v>100.02200000000001</v>
       </c>
       <c r="Q20">
-        <v>0.924</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -2418,119 +2470,119 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F21">
-        <v>201655</v>
+        <v>229208</v>
       </c>
       <c r="G21">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0.0411</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J21">
-        <v>0.8070000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K21">
-        <v>0.914</v>
+        <v>0.94</v>
       </c>
       <c r="L21">
-        <v>0.00105</v>
+        <v>8.2799999999999993E-5</v>
       </c>
       <c r="M21">
-        <v>0.292</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="N21">
-        <v>-5.092</v>
+        <v>-2.44</v>
       </c>
       <c r="O21">
-        <v>0.06900000000000001</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="P21">
-        <v>114.039</v>
+        <v>136.05600000000001</v>
       </c>
       <c r="Q21">
-        <v>0.463</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F22">
-        <v>155172</v>
+        <v>188824</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0.756</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="J22">
-        <v>0.532</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="K22">
-        <v>0.603</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.0600000000000003E-4</v>
       </c>
       <c r="M22">
-        <v>0.323</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="N22">
-        <v>-7.575</v>
+        <v>-3.391</v>
       </c>
       <c r="O22">
-        <v>0.0545</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="P22">
-        <v>173.955</v>
+        <v>129.93799999999999</v>
       </c>
       <c r="Q22">
-        <v>0.431</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2542,181 +2594,181 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
         <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F23">
-        <v>172014</v>
+        <v>292306</v>
       </c>
       <c r="G23">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>0.07190000000000001</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J23">
-        <v>0.772</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="K23">
-        <v>0.748</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="L23">
-        <v>7.79E-06</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="M23">
-        <v>0.06569999999999999</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="N23">
-        <v>-3.666</v>
+        <v>-5.7539999999999996</v>
       </c>
       <c r="O23">
-        <v>0.0444</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="P23">
-        <v>99.971</v>
+        <v>175.93299999999999</v>
       </c>
       <c r="Q23">
-        <v>0.493</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="R23">
         <v>4</v>
       </c>
       <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24">
+        <v>178352</v>
+      </c>
+      <c r="G24">
+        <v>48</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K24">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="L24">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N24">
+        <v>-4.8540000000000001</v>
+      </c>
+      <c r="O24">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="P24">
+        <v>102.982</v>
+      </c>
+      <c r="Q24">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
         <v>0</v>
       </c>
-      <c r="T23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24">
-        <v>188824</v>
-      </c>
-      <c r="G24">
-        <v>49</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24">
-        <v>0.0205</v>
-      </c>
-      <c r="J24">
-        <v>0.779</v>
-      </c>
-      <c r="K24">
-        <v>0.905</v>
-      </c>
-      <c r="L24">
-        <v>0.000706</v>
-      </c>
-      <c r="M24">
-        <v>0.342</v>
-      </c>
-      <c r="N24">
-        <v>-3.391</v>
-      </c>
-      <c r="O24">
-        <v>0.0555</v>
-      </c>
-      <c r="P24">
-        <v>129.938</v>
-      </c>
-      <c r="Q24">
-        <v>0.924</v>
-      </c>
-      <c r="R24">
-        <v>4</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
       <c r="T24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F25">
-        <v>267416</v>
+        <v>146063</v>
       </c>
       <c r="G25">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>0.065</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>0.78</v>
+        <v>0.629</v>
       </c>
       <c r="K25">
-        <v>0.97</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="L25">
-        <v>3.33E-05</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="M25">
-        <v>0.507</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N25">
-        <v>-0.86</v>
+        <v>-5.4660000000000002</v>
       </c>
       <c r="O25">
-        <v>0.12</v>
+        <v>5.91E-2</v>
       </c>
       <c r="P25">
-        <v>126.068</v>
+        <v>147.958</v>
       </c>
       <c r="Q25">
-        <v>0.793</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2728,57 +2780,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26">
-        <v>226615</v>
+        <v>267416</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0.388</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J26">
-        <v>0.792</v>
+        <v>0.78</v>
       </c>
       <c r="K26">
-        <v>0.8129999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L26">
-        <v>2.29E-05</v>
+        <v>3.3300000000000003E-5</v>
       </c>
       <c r="M26">
-        <v>0.0541</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="N26">
-        <v>-3.687</v>
+        <v>-0.86</v>
       </c>
       <c r="O26">
-        <v>0.0513</v>
+        <v>0.12</v>
       </c>
       <c r="P26">
-        <v>130.058</v>
+        <v>126.068</v>
       </c>
       <c r="Q26">
-        <v>0.868</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -2790,615 +2842,615 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="F27">
-        <v>322442</v>
+        <v>186411</v>
       </c>
       <c r="G27">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>0.32</v>
+        <v>2.5699999999999998E-3</v>
       </c>
       <c r="J27">
-        <v>0.399</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="K27">
-        <v>0.907</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="L27">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="M27">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="N27">
+        <v>-5.2690000000000001</v>
+      </c>
+      <c r="O27">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="P27">
+        <v>125.01600000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0.346</v>
-      </c>
-      <c r="N27">
-        <v>-2.945</v>
-      </c>
-      <c r="O27">
-        <v>0.219</v>
-      </c>
-      <c r="P27">
-        <v>196.296</v>
-      </c>
-      <c r="Q27">
-        <v>0.797</v>
-      </c>
-      <c r="R27">
+      <c r="T27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28">
+        <v>247812</v>
+      </c>
+      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28">
-        <v>233274</v>
-      </c>
-      <c r="G28">
-        <v>40</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
       <c r="I28">
-        <v>0.23</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="J28">
-        <v>0.654</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="K28">
-        <v>0.488</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.113</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="N28">
-        <v>-7.948</v>
+        <v>-6.7809999999999997</v>
       </c>
       <c r="O28">
-        <v>0.0561</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="P28">
-        <v>107.986</v>
+        <v>95.989000000000004</v>
       </c>
       <c r="Q28">
-        <v>0.391</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="R28">
         <v>4</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F29">
-        <v>285773</v>
+        <v>147700</v>
       </c>
       <c r="G29">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0.0588</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="J29">
-        <v>0.737</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="K29">
-        <v>0.857</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="L29">
-        <v>1.17E-05</v>
+        <v>9.5399999999999999E-4</v>
       </c>
       <c r="M29">
-        <v>0.281</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="N29">
-        <v>-5.806</v>
+        <v>-2.569</v>
       </c>
       <c r="O29">
-        <v>0.0451</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="P29">
-        <v>126.005</v>
+        <v>111.965</v>
       </c>
       <c r="Q29">
-        <v>0.8169999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="R29">
         <v>4</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
         <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F30">
-        <v>174264</v>
+        <v>268888</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>0.27</v>
+        <v>0.154</v>
       </c>
       <c r="J30">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="K30">
-        <v>0.71</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="L30">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.092</v>
+        <v>8.09E-2</v>
       </c>
       <c r="N30">
-        <v>-4.795</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="O30">
-        <v>0.0756</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="P30">
-        <v>98.014</v>
+        <v>134.983</v>
       </c>
       <c r="Q30">
-        <v>0.46</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="R30">
         <v>4</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F31">
-        <v>144543</v>
+        <v>306582</v>
       </c>
       <c r="G31">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>0.0828</v>
+        <v>7.6400000000000001E-3</v>
       </c>
       <c r="J31">
-        <v>0.728</v>
+        <v>0.623</v>
       </c>
       <c r="K31">
-        <v>0.961</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="L31">
-        <v>0.000548</v>
+        <v>2.7300000000000001E-6</v>
       </c>
       <c r="M31">
-        <v>0.0532</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="N31">
-        <v>-2.442</v>
+        <v>-4.4809999999999999</v>
       </c>
       <c r="O31">
-        <v>0.0572</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="P31">
-        <v>133.001</v>
+        <v>135.96799999999999</v>
       </c>
       <c r="Q31">
-        <v>0.921</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
         <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F32">
-        <v>292306</v>
+        <v>174264</v>
       </c>
       <c r="G32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0.0594</v>
+        <v>0.27</v>
       </c>
       <c r="J32">
-        <v>0.695</v>
+        <v>0.79</v>
       </c>
       <c r="K32">
-        <v>0.774</v>
+        <v>0.71</v>
       </c>
       <c r="L32">
-        <v>0.0179</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="M32">
-        <v>0.0165</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="N32">
-        <v>-5.754</v>
+        <v>-4.7949999999999999</v>
       </c>
       <c r="O32">
-        <v>0.231</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="P32">
-        <v>175.933</v>
+        <v>98.013999999999996</v>
       </c>
       <c r="Q32">
-        <v>0.889</v>
+        <v>0.46</v>
       </c>
       <c r="R32">
         <v>4</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33">
+        <v>204549</v>
+      </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="T32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33">
-        <v>179657</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
-        <v>0.0115</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J33">
-        <v>0.721</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="K33">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="L33">
-        <v>0.00014</v>
+        <v>1.04E-5</v>
       </c>
       <c r="M33">
-        <v>0.34</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="N33">
-        <v>-6.95</v>
+        <v>-5.5519999999999996</v>
       </c>
       <c r="O33">
-        <v>0.135</v>
+        <v>0.106</v>
       </c>
       <c r="P33">
-        <v>130.487</v>
+        <v>107.01</v>
       </c>
       <c r="Q33">
-        <v>0.392</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34">
+        <v>207393</v>
+      </c>
+      <c r="G34">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34">
-        <v>302935</v>
-      </c>
-      <c r="G34">
-        <v>69</v>
-      </c>
       <c r="H34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0.07439999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="J34">
-        <v>0.695</v>
+        <v>0.751</v>
       </c>
       <c r="K34">
-        <v>0.727</v>
+        <v>0.81</v>
       </c>
       <c r="L34">
-        <v>0.000175</v>
+        <v>6.6100000000000002E-6</v>
       </c>
       <c r="M34">
-        <v>0.533</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="N34">
-        <v>-6.274</v>
+        <v>-6.0759999999999996</v>
       </c>
       <c r="O34">
-        <v>0.0323</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="P34">
-        <v>118.034</v>
+        <v>112.004</v>
       </c>
       <c r="Q34">
-        <v>0.864</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="R34">
         <v>4</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
         <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F35">
-        <v>268888</v>
+        <v>172014</v>
       </c>
       <c r="G35">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>0.154</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="J35">
-        <v>0.77</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="K35">
-        <v>0.969</v>
+        <v>0.748</v>
       </c>
       <c r="L35">
+        <v>7.79E-6</v>
+      </c>
+      <c r="M35">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="N35">
+        <v>-3.6659999999999999</v>
+      </c>
+      <c r="O35">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="P35">
+        <v>99.971000000000004</v>
+      </c>
+      <c r="Q35">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0.0809</v>
-      </c>
-      <c r="N35">
-        <v>-0.179</v>
-      </c>
-      <c r="O35">
-        <v>0.06610000000000001</v>
-      </c>
-      <c r="P35">
-        <v>134.983</v>
-      </c>
-      <c r="Q35">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="R35">
-        <v>4</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F36">
-        <v>305017</v>
+        <v>371933</v>
       </c>
       <c r="G36">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>0.0873</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="J36">
-        <v>0.696</v>
+        <v>0.79</v>
       </c>
       <c r="K36">
-        <v>0.95</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="L36">
-        <v>0.000345</v>
+        <v>1.83E-3</v>
       </c>
       <c r="M36">
-        <v>0.0944</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N36">
-        <v>-4.942</v>
+        <v>-4.2839999999999998</v>
       </c>
       <c r="O36">
-        <v>0.0963</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="P36">
-        <v>125.029</v>
+        <v>110.012</v>
       </c>
       <c r="Q36">
-        <v>0.743</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="R36">
         <v>4</v>
@@ -3410,181 +3462,181 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F37">
-        <v>147700</v>
+        <v>187953</v>
       </c>
       <c r="G37">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0.0113</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="J37">
-        <v>0.758</v>
+        <v>0.752</v>
       </c>
       <c r="K37">
-        <v>0.911</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="L37">
-        <v>0.000954</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0.5610000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="N37">
-        <v>-2.569</v>
+        <v>-3.37</v>
       </c>
       <c r="O37">
-        <v>0.0488</v>
+        <v>6.83E-2</v>
       </c>
       <c r="P37">
-        <v>111.965</v>
+        <v>131.072</v>
       </c>
       <c r="Q37">
-        <v>0.329</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="R37">
         <v>4</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F38">
-        <v>256678</v>
+        <v>322442</v>
       </c>
       <c r="G38">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I38">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
       <c r="J38">
-        <v>0.858</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="K38">
-        <v>0.833</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.112</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="N38">
-        <v>-3.747</v>
+        <v>-2.9449999999999998</v>
       </c>
       <c r="O38">
-        <v>0.0471</v>
+        <v>0.219</v>
       </c>
       <c r="P38">
-        <v>107.977</v>
+        <v>196.29599999999999</v>
       </c>
       <c r="Q38">
-        <v>0.6929999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39">
+        <v>196138</v>
+      </c>
+      <c r="G39">
+        <v>56</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2.81E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="L39">
         <v>0</v>
       </c>
-      <c r="T38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39">
-        <v>300278</v>
-      </c>
-      <c r="G39">
-        <v>48</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0.0244</v>
-      </c>
-      <c r="J39">
-        <v>0.752</v>
-      </c>
-      <c r="K39">
-        <v>0.696</v>
-      </c>
-      <c r="L39">
-        <v>1.35E-06</v>
-      </c>
       <c r="M39">
-        <v>0.154</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="N39">
-        <v>-4.648</v>
+        <v>-2.5609999999999999</v>
       </c>
       <c r="O39">
-        <v>0.0667</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="P39">
-        <v>89.991</v>
+        <v>135.018</v>
       </c>
       <c r="Q39">
-        <v>0.355</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3596,57 +3648,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F40">
-        <v>170781</v>
+        <v>305017</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0.009849999999999999</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="J40">
-        <v>0.735</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="K40">
-        <v>0.831</v>
+        <v>0.95</v>
       </c>
       <c r="L40">
-        <v>1.97E-05</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="M40">
-        <v>0.128</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="N40">
-        <v>-2.774</v>
+        <v>-4.9420000000000002</v>
       </c>
       <c r="O40">
-        <v>0.043</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="P40">
-        <v>100.022</v>
+        <v>125.029</v>
       </c>
       <c r="Q40">
-        <v>0.592</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="R40">
         <v>4</v>
@@ -3658,57 +3710,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F41">
-        <v>178619</v>
+        <v>176125</v>
       </c>
       <c r="G41">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.441</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="J41">
-        <v>0.765</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="K41">
-        <v>0.95</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="L41">
-        <v>1.33E-05</v>
+        <v>2.8399999999999999E-5</v>
       </c>
       <c r="M41">
-        <v>0.342</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="N41">
-        <v>-2.409</v>
+        <v>-3.1349999999999998</v>
       </c>
       <c r="O41">
-        <v>0.09130000000000001</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="P41">
-        <v>130.011</v>
+        <v>119.99299999999999</v>
       </c>
       <c r="Q41">
-        <v>0.882</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -3720,243 +3772,243 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F42">
-        <v>313500</v>
+        <v>192221</v>
       </c>
       <c r="G42">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="K42">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L42">
+        <v>8.4900000000000004E-5</v>
+      </c>
+      <c r="M42">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="N42">
+        <v>-3.5760000000000001</v>
+      </c>
+      <c r="O42">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="P42">
+        <v>100.038</v>
+      </c>
+      <c r="Q42">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0.173</v>
-      </c>
-      <c r="J42">
-        <v>0.604</v>
-      </c>
-      <c r="K42">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0.08690000000000001</v>
-      </c>
-      <c r="N42">
-        <v>-3.996</v>
-      </c>
-      <c r="O42">
-        <v>0.34</v>
-      </c>
-      <c r="P42">
-        <v>136.311</v>
-      </c>
-      <c r="Q42">
-        <v>0.316</v>
-      </c>
-      <c r="R42">
-        <v>4</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F43">
-        <v>371933</v>
+        <v>191089</v>
       </c>
       <c r="G43">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>0.0481</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J43">
-        <v>0.79</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="K43">
-        <v>0.894</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="L43">
-        <v>0.00183</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.055</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="N43">
-        <v>-4.284</v>
+        <v>-0.155</v>
       </c>
       <c r="O43">
-        <v>0.09030000000000001</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="P43">
-        <v>110.012</v>
+        <v>108.014</v>
       </c>
       <c r="Q43">
-        <v>0.615</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="R43">
         <v>4</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F44">
-        <v>238798</v>
+        <v>144543</v>
       </c>
       <c r="G44">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>0.0919</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="J44">
-        <v>0.5659999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="K44">
-        <v>0.84</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="L44">
-        <v>0.0272</v>
+        <v>5.4799999999999998E-4</v>
       </c>
       <c r="M44">
-        <v>0.189</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="N44">
-        <v>-5.325</v>
+        <v>-2.4420000000000002</v>
       </c>
       <c r="O44">
-        <v>0.131</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="P44">
-        <v>104.973</v>
+        <v>133.001</v>
       </c>
       <c r="Q44">
-        <v>0.784</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="R44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45">
+        <v>204007</v>
+      </c>
+      <c r="G45">
+        <v>37</v>
+      </c>
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="T44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" t="s">
-        <v>247</v>
-      </c>
-      <c r="F45">
-        <v>352388</v>
-      </c>
-      <c r="G45">
-        <v>58</v>
-      </c>
-      <c r="H45">
-        <v>9</v>
-      </c>
       <c r="I45">
-        <v>0.0289</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J45">
-        <v>0.725</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="K45">
-        <v>0.918</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="L45">
-        <v>5.13E-06</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.602</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="N45">
-        <v>-4.875</v>
+        <v>-2.8119999999999998</v>
       </c>
       <c r="O45">
-        <v>0.0447</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="P45">
-        <v>107.975</v>
+        <v>136</v>
       </c>
       <c r="Q45">
-        <v>0.927</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="R45">
         <v>4</v>
@@ -3968,367 +4020,367 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
         <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F46">
-        <v>226504</v>
+        <v>296829</v>
       </c>
       <c r="G46">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>0.0992</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="J46">
-        <v>0.695</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="K46">
-        <v>0.89</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="L46">
-        <v>0.00161</v>
+        <v>6.2899999999999999E-6</v>
       </c>
       <c r="M46">
-        <v>0.0834</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="N46">
-        <v>-4.925</v>
+        <v>-6.1319999999999997</v>
       </c>
       <c r="O46">
-        <v>0.0477</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="P46">
-        <v>159.988</v>
+        <v>110.004</v>
       </c>
       <c r="Q46">
-        <v>0.828</v>
+        <v>0.628</v>
       </c>
       <c r="R46">
         <v>4</v>
       </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47">
+        <v>178847</v>
+      </c>
+      <c r="G47">
+        <v>47</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.81</v>
+      </c>
+      <c r="K47">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="L47">
+        <v>9.1399999999999999E-5</v>
+      </c>
+      <c r="M47">
+        <v>0.374</v>
+      </c>
+      <c r="N47">
+        <v>-4.4509999999999996</v>
+      </c>
+      <c r="O47">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="P47">
+        <v>123.96599999999999</v>
+      </c>
+      <c r="Q47">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
         <v>1</v>
       </c>
-      <c r="T46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47">
-        <v>247812</v>
-      </c>
-      <c r="G47">
-        <v>51</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>0.361</v>
-      </c>
-      <c r="J47">
-        <v>0.634</v>
-      </c>
-      <c r="K47">
-        <v>0.648</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0.619</v>
-      </c>
-      <c r="N47">
-        <v>-6.781</v>
-      </c>
-      <c r="O47">
-        <v>0.0412</v>
-      </c>
-      <c r="P47">
-        <v>95.989</v>
-      </c>
-      <c r="Q47">
-        <v>0.667</v>
-      </c>
-      <c r="R47">
-        <v>4</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
       <c r="T47" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F48">
-        <v>253160</v>
+        <v>313500</v>
       </c>
       <c r="G48">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0.0728</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J48">
-        <v>0.71</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K48">
-        <v>0.801</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.07439999999999999</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="N48">
-        <v>-4.845</v>
+        <v>-3.996</v>
       </c>
       <c r="O48">
-        <v>0.0896</v>
+        <v>0.34</v>
       </c>
       <c r="P48">
-        <v>145.102</v>
+        <v>136.31100000000001</v>
       </c>
       <c r="Q48">
-        <v>0.845</v>
+        <v>0.316</v>
       </c>
       <c r="R48">
         <v>4</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F49">
-        <v>204007</v>
+        <v>249558</v>
       </c>
       <c r="G49">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0.68</v>
+      </c>
+      <c r="K49">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L49">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="M49">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="N49">
+        <v>-6.1769999999999996</v>
+      </c>
+      <c r="O49">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="P49">
+        <v>101.983</v>
+      </c>
+      <c r="Q49">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0.038</v>
-      </c>
-      <c r="J49">
-        <v>0.676</v>
-      </c>
-      <c r="K49">
-        <v>0.986</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0.399</v>
-      </c>
-      <c r="N49">
-        <v>-2.812</v>
-      </c>
-      <c r="O49">
-        <v>0.09180000000000001</v>
-      </c>
-      <c r="P49">
-        <v>136</v>
-      </c>
-      <c r="Q49">
-        <v>0.585</v>
-      </c>
-      <c r="R49">
-        <v>4</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
       <c r="T49" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F50">
-        <v>196138</v>
+        <v>202352</v>
       </c>
       <c r="G50">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I50">
-        <v>0.0281</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="J50">
-        <v>0.761</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="K50">
-        <v>0.911</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.388</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N50">
-        <v>-2.561</v>
+        <v>-4.758</v>
       </c>
       <c r="O50">
-        <v>0.136</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="P50">
-        <v>135.018</v>
+        <v>101.961</v>
       </c>
       <c r="Q50">
-        <v>0.463</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="R50">
         <v>4</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F51">
-        <v>234501</v>
+        <v>226615</v>
       </c>
       <c r="G51">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.134</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="J51">
-        <v>0.8080000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K51">
-        <v>0.864</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="L51">
-        <v>2.19E-05</v>
+        <v>2.2900000000000001E-5</v>
       </c>
       <c r="M51">
-        <v>0.06909999999999999</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="N51">
-        <v>-6.983</v>
+        <v>-3.6869999999999998</v>
       </c>
       <c r="O51">
-        <v>0.0745</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="P51">
-        <v>108.031</v>
+        <v>130.05799999999999</v>
       </c>
       <c r="Q51">
-        <v>0.871</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="R51">
         <v>4</v>
@@ -4340,57 +4392,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F52">
-        <v>178847</v>
+        <v>226504</v>
       </c>
       <c r="G52">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I52">
-        <v>0.0454</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="J52">
-        <v>0.8100000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="K52">
-        <v>0.846</v>
+        <v>0.89</v>
       </c>
       <c r="L52">
-        <v>9.14E-05</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="M52">
-        <v>0.374</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="N52">
-        <v>-4.451</v>
+        <v>-4.9249999999999998</v>
       </c>
       <c r="O52">
-        <v>0.0435</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="P52">
-        <v>123.966</v>
+        <v>159.988</v>
       </c>
       <c r="Q52">
-        <v>0.885</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="R52">
         <v>4</v>
@@ -4402,131 +4454,131 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
         <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="F53">
-        <v>296829</v>
+        <v>152277</v>
       </c>
       <c r="G53">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>0.0605</v>
+        <v>0.43</v>
       </c>
       <c r="J53">
-        <v>0.759</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="K53">
-        <v>0.903</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="L53">
-        <v>6.29E-06</v>
+        <v>3.6799999999999999E-6</v>
       </c>
       <c r="M53">
-        <v>0.232</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="N53">
-        <v>-6.132</v>
+        <v>-7.7530000000000001</v>
       </c>
       <c r="O53">
-        <v>0.0725</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="P53">
-        <v>110.004</v>
+        <v>94.025000000000006</v>
       </c>
       <c r="Q53">
-        <v>0.628</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="R53">
         <v>4</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F54">
-        <v>235357</v>
+        <v>199264</v>
       </c>
       <c r="G54">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0.08550000000000001</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="J54">
-        <v>0.785</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="K54">
-        <v>0.789</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="L54">
-        <v>0.00147</v>
+        <v>9.1600000000000004E-5</v>
       </c>
       <c r="M54">
-        <v>0.074</v>
+        <v>0.104</v>
       </c>
       <c r="N54">
-        <v>-5.304</v>
+        <v>-4.7240000000000002</v>
       </c>
       <c r="O54">
-        <v>0.136</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="P54">
-        <v>131.955</v>
+        <v>123.02</v>
       </c>
       <c r="Q54">
-        <v>0.497</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="R54">
         <v>4</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4552,31 +4604,31 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J55">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="K55">
-        <v>0.656</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="L55">
-        <v>4.65E-06</v>
+        <v>4.6500000000000004E-6</v>
       </c>
       <c r="M55">
         <v>0.1</v>
       </c>
       <c r="N55">
-        <v>-8.458</v>
+        <v>-8.4580000000000002</v>
       </c>
       <c r="O55">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="P55">
         <v>116.98</v>
       </c>
       <c r="Q55">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R55">
         <v>4</v>
@@ -4588,60 +4640,60 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F56">
-        <v>202352</v>
+        <v>238798</v>
       </c>
       <c r="G56">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I56">
-        <v>0.136</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="J56">
-        <v>0.769</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="K56">
-        <v>0.864</v>
+        <v>0.84</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="M56">
-        <v>0.068</v>
+        <v>0.189</v>
       </c>
       <c r="N56">
-        <v>-4.758</v>
+        <v>-5.3250000000000002</v>
       </c>
       <c r="O56">
-        <v>0.0581</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="P56">
-        <v>101.961</v>
+        <v>104.973</v>
       </c>
       <c r="Q56">
-        <v>0.699</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -4650,243 +4702,243 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F57">
-        <v>208212</v>
+        <v>179657</v>
       </c>
       <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K57">
+        <v>0.65</v>
+      </c>
+      <c r="L57">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="M57">
+        <v>0.34</v>
+      </c>
+      <c r="N57">
+        <v>-6.95</v>
+      </c>
+      <c r="O57">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="P57">
+        <v>130.48699999999999</v>
+      </c>
+      <c r="Q57">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58">
+        <v>253160</v>
+      </c>
+      <c r="G58">
+        <v>59</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.71</v>
+      </c>
+      <c r="K58">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="N58">
+        <v>-4.8449999999999998</v>
+      </c>
+      <c r="O58">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="P58">
+        <v>145.102</v>
+      </c>
+      <c r="Q58">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59">
+        <v>178619</v>
+      </c>
+      <c r="G59">
         <v>46</v>
       </c>
-      <c r="H57">
-        <v>9</v>
-      </c>
-      <c r="I57">
-        <v>0.452</v>
-      </c>
-      <c r="J57">
-        <v>0.761</v>
-      </c>
-      <c r="K57">
-        <v>0.907</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0.06370000000000001</v>
-      </c>
-      <c r="N57">
-        <v>-3.895</v>
-      </c>
-      <c r="O57">
-        <v>0.211</v>
-      </c>
-      <c r="P57">
-        <v>107.004</v>
-      </c>
-      <c r="Q57">
-        <v>0.897</v>
-      </c>
-      <c r="R57">
-        <v>4</v>
-      </c>
-      <c r="S57">
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0.441</v>
+      </c>
+      <c r="J59">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.95</v>
+      </c>
+      <c r="L59">
+        <v>1.33E-5</v>
+      </c>
+      <c r="M59">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="N59">
+        <v>-2.4089999999999998</v>
+      </c>
+      <c r="O59">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="P59">
+        <v>130.011</v>
+      </c>
+      <c r="Q59">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
         <v>1</v>
       </c>
-      <c r="T57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" t="s">
-        <v>259</v>
-      </c>
-      <c r="F58">
-        <v>258196</v>
-      </c>
-      <c r="G58">
-        <v>36</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>0.0232</v>
-      </c>
-      <c r="J58">
-        <v>0.727</v>
-      </c>
-      <c r="K58">
-        <v>0.753</v>
-      </c>
-      <c r="L58">
-        <v>6.53E-05</v>
-      </c>
-      <c r="M58">
-        <v>0.145</v>
-      </c>
-      <c r="N58">
-        <v>-9.183</v>
-      </c>
-      <c r="O58">
-        <v>0.09420000000000001</v>
-      </c>
-      <c r="P58">
-        <v>101.973</v>
-      </c>
-      <c r="Q58">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="R58">
-        <v>4</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59">
-        <v>249558</v>
-      </c>
-      <c r="G59">
-        <v>27</v>
-      </c>
-      <c r="H59">
-        <v>11</v>
-      </c>
-      <c r="I59">
-        <v>0.181</v>
-      </c>
-      <c r="J59">
-        <v>0.68</v>
-      </c>
-      <c r="K59">
-        <v>0.855</v>
-      </c>
-      <c r="L59">
-        <v>0.000152</v>
-      </c>
-      <c r="M59">
-        <v>0.0633</v>
-      </c>
-      <c r="N59">
-        <v>-6.177</v>
-      </c>
-      <c r="O59">
-        <v>0.06710000000000001</v>
-      </c>
-      <c r="P59">
-        <v>101.983</v>
-      </c>
-      <c r="Q59">
-        <v>0.722</v>
-      </c>
-      <c r="R59">
-        <v>4</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="F60">
-        <v>169727</v>
+        <v>215483</v>
       </c>
       <c r="G60">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.883</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="J60">
-        <v>0.661</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K60">
-        <v>0.198</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="L60">
-        <v>0.0148</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>0.1</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="N60">
-        <v>-17.778</v>
+        <v>-4.343</v>
       </c>
       <c r="O60">
-        <v>0.0305</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="P60">
-        <v>122.017</v>
+        <v>105.995</v>
       </c>
       <c r="Q60">
-        <v>0.177</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -4898,57 +4950,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="F61">
-        <v>186411</v>
+        <v>256678</v>
       </c>
       <c r="G61">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>0.00257</v>
+        <v>0.375</v>
       </c>
       <c r="J61">
-        <v>0.744</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="K61">
-        <v>0.778</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="L61">
-        <v>0.000575</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0.291</v>
+        <v>0.112</v>
       </c>
       <c r="N61">
-        <v>-5.269</v>
+        <v>-3.7469999999999999</v>
       </c>
       <c r="O61">
-        <v>0.0645</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="P61">
-        <v>125.016</v>
+        <v>107.977</v>
       </c>
       <c r="Q61">
-        <v>0.804</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="R61">
         <v>4</v>
@@ -4960,57 +5012,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F62">
-        <v>187953</v>
+        <v>234501</v>
       </c>
       <c r="G62">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I62">
-        <v>0.0506</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="J62">
-        <v>0.752</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="K62">
-        <v>0.944</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2.19E-5</v>
       </c>
       <c r="M62">
-        <v>0.225</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="N62">
-        <v>-3.37</v>
+        <v>-6.9829999999999997</v>
       </c>
       <c r="O62">
-        <v>0.0683</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="P62">
-        <v>131.072</v>
+        <v>108.03100000000001</v>
       </c>
       <c r="Q62">
-        <v>0.737</v>
+        <v>0.871</v>
       </c>
       <c r="R62">
         <v>4</v>
@@ -5022,57 +5074,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F63">
-        <v>192221</v>
+        <v>208212</v>
       </c>
       <c r="G63">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I63">
-        <v>0.14</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J63">
-        <v>0.681</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="K63">
-        <v>0.864</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="L63">
-        <v>8.49E-05</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0.07439999999999999</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="N63">
-        <v>-3.576</v>
+        <v>-3.895</v>
       </c>
       <c r="O63">
-        <v>0.0368</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="P63">
-        <v>100.038</v>
+        <v>107.004</v>
       </c>
       <c r="Q63">
-        <v>0.462</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -5084,57 +5136,57 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F64">
-        <v>204549</v>
+        <v>233274</v>
       </c>
       <c r="G64">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0.0116</v>
+        <v>0.23</v>
       </c>
       <c r="J64">
-        <v>0.829</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="K64">
-        <v>0.76</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="L64">
-        <v>1.04E-05</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0.336</v>
+        <v>0.113</v>
       </c>
       <c r="N64">
-        <v>-5.552</v>
+        <v>-7.9480000000000004</v>
       </c>
       <c r="O64">
-        <v>0.106</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="P64">
-        <v>107.01</v>
+        <v>107.986</v>
       </c>
       <c r="Q64">
-        <v>0.773</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="R64">
         <v>4</v>
@@ -5147,6 +5199,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T64">
+    <sortCondition ref="B1:B64"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/remix_songs_data.xlsx
+++ b/data/remix_songs_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5FB981FC6D138C3DFF2C4CE925AC198978781683" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FD8C422-AC7B-4029-AF37-D9D408DF0822}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="271">
   <si>
     <t>track_id</t>
   </si>
@@ -271,6 +265,9 @@
     <t>3ElJ4RSdrweHUb1jsPEOF8</t>
   </si>
   <si>
+    <t>50sbcAcWHgDPRDkYBEUpkA</t>
+  </si>
+  <si>
     <t>Laila Main Laila</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
     <t>Lift Teri Bandh Hai (From "Judwaa 2")</t>
   </si>
   <si>
+    <t>Mere Rashke Qamar (From "Baadshaho")</t>
+  </si>
+  <si>
     <t>Raees</t>
   </si>
   <si>
@@ -634,6 +634,9 @@
     <t>Anu Malik</t>
   </si>
   <si>
+    <t>Nusrat Fateh Ali Khan</t>
+  </si>
+  <si>
     <t>2017-01-24</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
   </si>
   <si>
     <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
   </si>
   <si>
     <t>7IkN3KGdUk6rw0TxIfJ3yv</t>
@@ -826,8 +832,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,14 +896,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -944,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,27 +974,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,24 +1008,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1221,16 +1183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,57 +1252,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F2">
-        <v>212741</v>
+        <v>306582</v>
       </c>
       <c r="G2">
         <v>59</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0.28899999999999998</v>
+        <v>0.00764</v>
       </c>
       <c r="J2">
-        <v>0.79600000000000004</v>
+        <v>0.623</v>
       </c>
       <c r="K2">
-        <v>0.97799999999999998</v>
+        <v>0.924</v>
       </c>
       <c r="L2">
-        <v>2.5400000000000002E-3</v>
+        <v>2.73E-06</v>
       </c>
       <c r="M2">
-        <v>0.34599999999999997</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="N2">
-        <v>-1.266</v>
+        <v>-4.481</v>
       </c>
       <c r="O2">
-        <v>9.5500000000000002E-2</v>
+        <v>0.142</v>
       </c>
       <c r="P2">
-        <v>129.999</v>
+        <v>135.968</v>
       </c>
       <c r="Q2">
-        <v>0.8</v>
+        <v>0.506</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -1351,24 +1311,24 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F3">
         <v>307362</v>
@@ -1380,22 +1340,22 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6.3799999999999996E-2</v>
+        <v>0.0638</v>
       </c>
       <c r="J3">
-        <v>0.80100000000000005</v>
+        <v>0.801</v>
       </c>
       <c r="K3">
-        <v>0.92200000000000004</v>
+        <v>0.922</v>
       </c>
       <c r="L3">
-        <v>6.2699999999999995E-4</v>
+        <v>0.000627</v>
       </c>
       <c r="M3">
-        <v>0.34899999999999998</v>
+        <v>0.349</v>
       </c>
       <c r="N3">
-        <v>-6.5620000000000003</v>
+        <v>-6.562</v>
       </c>
       <c r="O3">
         <v>0.114</v>
@@ -1404,7 +1364,7 @@
         <v>110.042</v>
       </c>
       <c r="Q3">
-        <v>0.78800000000000003</v>
+        <v>0.788</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -1413,60 +1373,60 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="F4">
-        <v>169727</v>
+        <v>199264</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.88300000000000001</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="J4">
-        <v>0.66100000000000003</v>
+        <v>0.724</v>
       </c>
       <c r="K4">
-        <v>0.19800000000000001</v>
+        <v>0.848</v>
       </c>
       <c r="L4">
-        <v>1.4800000000000001E-2</v>
+        <v>9.16E-05</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="N4">
-        <v>-17.777999999999999</v>
+        <v>-4.724</v>
       </c>
       <c r="O4">
-        <v>3.0499999999999999E-2</v>
+        <v>0.0522</v>
       </c>
       <c r="P4">
-        <v>122.017</v>
+        <v>123.02</v>
       </c>
       <c r="Q4">
-        <v>0.17699999999999999</v>
+        <v>0.781</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -1475,60 +1435,60 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F5">
-        <v>219491</v>
+        <v>212412</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.121</v>
+        <v>0.0399</v>
       </c>
       <c r="J5">
-        <v>0.751</v>
+        <v>0.73</v>
       </c>
       <c r="K5">
-        <v>0.97499999999999998</v>
+        <v>0.58</v>
       </c>
       <c r="L5">
-        <v>2.2000000000000001E-6</v>
+        <v>2.48E-05</v>
       </c>
       <c r="M5">
-        <v>0.20399999999999999</v>
+        <v>0.0703</v>
       </c>
       <c r="N5">
-        <v>-3.024</v>
+        <v>-7.976</v>
       </c>
       <c r="O5">
-        <v>9.4100000000000003E-2</v>
+        <v>0.124</v>
       </c>
       <c r="P5">
-        <v>104.018</v>
+        <v>167.915</v>
       </c>
       <c r="Q5">
-        <v>0.81799999999999995</v>
+        <v>0.55</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1537,60 +1497,60 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F6">
-        <v>164601</v>
+        <v>236325</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>7.6399999999999996E-2</v>
+        <v>0.659</v>
       </c>
       <c r="J6">
-        <v>0.746</v>
+        <v>0.325</v>
       </c>
       <c r="K6">
-        <v>0.92500000000000004</v>
+        <v>0.421</v>
       </c>
       <c r="L6">
-        <v>5.6400000000000002E-5</v>
+        <v>4.46E-06</v>
       </c>
       <c r="M6">
-        <v>0.28999999999999998</v>
+        <v>0.0825</v>
       </c>
       <c r="N6">
-        <v>-3.6269999999999998</v>
+        <v>-8.635999999999999</v>
       </c>
       <c r="O6">
-        <v>6.9400000000000003E-2</v>
+        <v>0.0561</v>
       </c>
       <c r="P6">
-        <v>131.97499999999999</v>
+        <v>170.363</v>
       </c>
       <c r="Q6">
-        <v>0.92400000000000004</v>
+        <v>0.204</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1599,122 +1559,122 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F7">
-        <v>300278</v>
+        <v>261004</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>2.4400000000000002E-2</v>
+        <v>0.0355</v>
       </c>
       <c r="J7">
-        <v>0.752</v>
+        <v>0.804</v>
       </c>
       <c r="K7">
-        <v>0.69599999999999995</v>
+        <v>0.887</v>
       </c>
       <c r="L7">
-        <v>1.35E-6</v>
+        <v>1.01E-06</v>
       </c>
       <c r="M7">
-        <v>0.154</v>
+        <v>0.212</v>
       </c>
       <c r="N7">
-        <v>-4.6479999999999997</v>
+        <v>-5.169</v>
       </c>
       <c r="O7">
-        <v>6.6699999999999995E-2</v>
+        <v>0.0418</v>
       </c>
       <c r="P7">
-        <v>89.991</v>
+        <v>126.011</v>
       </c>
       <c r="Q7">
-        <v>0.35499999999999998</v>
+        <v>0.915</v>
       </c>
       <c r="R7">
         <v>4</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F8">
-        <v>261004</v>
+        <v>229208</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>3.5499999999999997E-2</v>
+        <v>0.163</v>
       </c>
       <c r="J8">
-        <v>0.80400000000000005</v>
+        <v>0.583</v>
       </c>
       <c r="K8">
-        <v>0.88700000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L8">
-        <v>1.0100000000000001E-6</v>
+        <v>8.279999999999999E-05</v>
       </c>
       <c r="M8">
-        <v>0.21199999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="N8">
-        <v>-5.1689999999999996</v>
+        <v>-2.44</v>
       </c>
       <c r="O8">
-        <v>4.1799999999999997E-2</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="P8">
-        <v>126.011</v>
+        <v>136.056</v>
       </c>
       <c r="Q8">
-        <v>0.91500000000000004</v>
+        <v>0.492</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1723,60 +1683,60 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F9">
-        <v>285773</v>
+        <v>207393</v>
       </c>
       <c r="G9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5.8799999999999998E-2</v>
+        <v>0.0735</v>
       </c>
       <c r="J9">
-        <v>0.73699999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="K9">
-        <v>0.85699999999999998</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L9">
-        <v>1.17E-5</v>
+        <v>6.61E-06</v>
       </c>
       <c r="M9">
-        <v>0.28100000000000003</v>
+        <v>0.552</v>
       </c>
       <c r="N9">
-        <v>-5.806</v>
+        <v>-6.076</v>
       </c>
       <c r="O9">
-        <v>4.5100000000000001E-2</v>
+        <v>0.0456</v>
       </c>
       <c r="P9">
-        <v>126.005</v>
+        <v>112.004</v>
       </c>
       <c r="Q9">
-        <v>0.81699999999999995</v>
+        <v>0.882</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1785,60 +1745,60 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="F10">
-        <v>352388</v>
+        <v>215483</v>
       </c>
       <c r="G10">
         <v>58</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.8899999999999999E-2</v>
+        <v>0.195</v>
       </c>
       <c r="J10">
-        <v>0.72499999999999998</v>
+        <v>0.792</v>
       </c>
       <c r="K10">
-        <v>0.91800000000000004</v>
+        <v>0.703</v>
       </c>
       <c r="L10">
-        <v>5.13E-6</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.60199999999999998</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="N10">
-        <v>-4.875</v>
+        <v>-4.343</v>
       </c>
       <c r="O10">
-        <v>4.4699999999999997E-2</v>
+        <v>0.0368</v>
       </c>
       <c r="P10">
-        <v>107.97499999999999</v>
+        <v>105.995</v>
       </c>
       <c r="Q10">
-        <v>0.92700000000000005</v>
+        <v>0.634</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1847,184 +1807,184 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="F11">
-        <v>258196</v>
+        <v>243602</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>2.3199999999999998E-2</v>
+        <v>0.0491</v>
       </c>
       <c r="J11">
-        <v>0.72699999999999998</v>
+        <v>0.666</v>
       </c>
       <c r="K11">
-        <v>0.753</v>
+        <v>0.919</v>
       </c>
       <c r="L11">
-        <v>6.5300000000000002E-5</v>
+        <v>5.73E-06</v>
       </c>
       <c r="M11">
-        <v>0.14499999999999999</v>
+        <v>0.531</v>
       </c>
       <c r="N11">
-        <v>-9.1829999999999998</v>
+        <v>-5.389</v>
       </c>
       <c r="O11">
-        <v>9.4200000000000006E-2</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="P11">
-        <v>101.973</v>
+        <v>102.756</v>
       </c>
       <c r="Q11">
-        <v>0.68799999999999994</v>
+        <v>0.644</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F12">
-        <v>212412</v>
+        <v>178352</v>
       </c>
       <c r="G12">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>0.794</v>
+      </c>
+      <c r="K12">
+        <v>0.781</v>
+      </c>
+      <c r="L12">
+        <v>0.0151</v>
+      </c>
+      <c r="M12">
+        <v>0.139</v>
+      </c>
+      <c r="N12">
+        <v>-4.854</v>
+      </c>
+      <c r="O12">
+        <v>0.0536</v>
+      </c>
+      <c r="P12">
+        <v>102.982</v>
+      </c>
+      <c r="Q12">
+        <v>0.836</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.73</v>
-      </c>
-      <c r="K12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L12">
-        <v>2.48E-5</v>
-      </c>
-      <c r="M12">
-        <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="N12">
-        <v>-7.976</v>
-      </c>
-      <c r="O12">
-        <v>0.124</v>
-      </c>
-      <c r="P12">
-        <v>167.91499999999999</v>
-      </c>
-      <c r="Q12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F13">
-        <v>184432</v>
+        <v>212741</v>
       </c>
       <c r="G13">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0.155</v>
+        <v>0.289</v>
       </c>
       <c r="J13">
-        <v>0.72499999999999998</v>
+        <v>0.796</v>
       </c>
       <c r="K13">
-        <v>0.91200000000000003</v>
+        <v>0.978</v>
       </c>
       <c r="L13">
-        <v>7.6799999999999997E-5</v>
+        <v>0.00254</v>
       </c>
       <c r="M13">
-        <v>0.107</v>
+        <v>0.346</v>
       </c>
       <c r="N13">
-        <v>-3.665</v>
+        <v>-1.266</v>
       </c>
       <c r="O13">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0955</v>
       </c>
       <c r="P13">
-        <v>104.054</v>
+        <v>129.999</v>
       </c>
       <c r="Q13">
-        <v>0.67400000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="R13">
         <v>4</v>
@@ -2033,184 +1993,184 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F14">
-        <v>201655</v>
+        <v>184432</v>
       </c>
       <c r="G14">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>4.1099999999999998E-2</v>
+        <v>0.155</v>
       </c>
       <c r="J14">
-        <v>0.80700000000000005</v>
+        <v>0.725</v>
       </c>
       <c r="K14">
-        <v>0.91400000000000003</v>
+        <v>0.912</v>
       </c>
       <c r="L14">
-        <v>1.0499999999999999E-3</v>
+        <v>7.68E-05</v>
       </c>
       <c r="M14">
-        <v>0.29199999999999998</v>
+        <v>0.107</v>
       </c>
       <c r="N14">
-        <v>-5.0919999999999996</v>
+        <v>-3.665</v>
       </c>
       <c r="O14">
-        <v>6.9000000000000006E-2</v>
+        <v>0.0851</v>
       </c>
       <c r="P14">
-        <v>114.039</v>
+        <v>104.054</v>
       </c>
       <c r="Q14">
-        <v>0.46300000000000002</v>
+        <v>0.674</v>
       </c>
       <c r="R14">
         <v>4</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F15">
-        <v>243602</v>
+        <v>191089</v>
       </c>
       <c r="G15">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>4.9099999999999998E-2</v>
+        <v>0.163</v>
       </c>
       <c r="J15">
-        <v>0.66600000000000004</v>
+        <v>0.737</v>
       </c>
       <c r="K15">
-        <v>0.91900000000000004</v>
+        <v>0.961</v>
       </c>
       <c r="L15">
-        <v>5.7300000000000002E-6</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.53100000000000003</v>
+        <v>0.361</v>
       </c>
       <c r="N15">
-        <v>-5.3890000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="O15">
-        <v>6.6100000000000006E-2</v>
+        <v>0.0747</v>
       </c>
       <c r="P15">
-        <v>102.756</v>
+        <v>108.014</v>
       </c>
       <c r="Q15">
-        <v>0.64400000000000002</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F16">
-        <v>155172</v>
+        <v>152277</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0.75600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="J16">
-        <v>0.53200000000000003</v>
+        <v>0.662</v>
       </c>
       <c r="K16">
-        <v>0.60299999999999998</v>
+        <v>0.598</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.68E-06</v>
       </c>
       <c r="M16">
-        <v>0.32300000000000001</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="N16">
-        <v>-7.5750000000000002</v>
+        <v>-7.753</v>
       </c>
       <c r="O16">
-        <v>5.45E-2</v>
+        <v>0.0459</v>
       </c>
       <c r="P16">
-        <v>173.95500000000001</v>
+        <v>94.02500000000001</v>
       </c>
       <c r="Q16">
-        <v>0.43099999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -2219,122 +2179,122 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F17">
-        <v>235357</v>
+        <v>146063</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>8.5500000000000007E-2</v>
+        <v>0.0351</v>
       </c>
       <c r="J17">
-        <v>0.78500000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="K17">
-        <v>0.78900000000000003</v>
+        <v>0.957</v>
       </c>
       <c r="L17">
-        <v>1.47E-3</v>
+        <v>0.000375</v>
       </c>
       <c r="M17">
-        <v>7.3999999999999996E-2</v>
+        <v>0.273</v>
       </c>
       <c r="N17">
-        <v>-5.3040000000000003</v>
+        <v>-5.466</v>
       </c>
       <c r="O17">
-        <v>0.13600000000000001</v>
+        <v>0.0591</v>
       </c>
       <c r="P17">
-        <v>131.95500000000001</v>
+        <v>147.958</v>
       </c>
       <c r="Q17">
-        <v>0.497</v>
+        <v>0.652</v>
       </c>
       <c r="R17">
         <v>4</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F18">
-        <v>236325</v>
+        <v>219491</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0.65900000000000003</v>
+        <v>0.121</v>
       </c>
       <c r="J18">
-        <v>0.32500000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="K18">
-        <v>0.42099999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="L18">
-        <v>4.4599999999999996E-6</v>
+        <v>2.2E-06</v>
       </c>
       <c r="M18">
-        <v>8.2500000000000004E-2</v>
+        <v>0.204</v>
       </c>
       <c r="N18">
-        <v>-8.6359999999999992</v>
+        <v>-3.024</v>
       </c>
       <c r="O18">
-        <v>5.6099999999999997E-2</v>
+        <v>0.0941</v>
       </c>
       <c r="P18">
-        <v>170.363</v>
+        <v>104.018</v>
       </c>
       <c r="Q18">
-        <v>0.20399999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2343,122 +2303,122 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F19">
-        <v>302935</v>
+        <v>176125</v>
       </c>
       <c r="G19">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.4399999999999994E-2</v>
+        <v>0.0248</v>
       </c>
       <c r="J19">
-        <v>0.69499999999999995</v>
+        <v>0.804</v>
       </c>
       <c r="K19">
-        <v>0.72699999999999998</v>
+        <v>0.913</v>
       </c>
       <c r="L19">
-        <v>1.75E-4</v>
+        <v>2.84E-05</v>
       </c>
       <c r="M19">
-        <v>0.53300000000000003</v>
+        <v>0.391</v>
       </c>
       <c r="N19">
-        <v>-6.274</v>
+        <v>-3.135</v>
       </c>
       <c r="O19">
-        <v>3.2300000000000002E-2</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="P19">
-        <v>118.03400000000001</v>
+        <v>119.993</v>
       </c>
       <c r="Q19">
-        <v>0.86399999999999999</v>
+        <v>0.544</v>
       </c>
       <c r="R19">
         <v>4</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F20">
-        <v>170781</v>
+        <v>164601</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>9.8499999999999994E-3</v>
+        <v>0.0764</v>
       </c>
       <c r="J20">
-        <v>0.73499999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="K20">
-        <v>0.83099999999999996</v>
+        <v>0.925</v>
       </c>
       <c r="L20">
-        <v>1.9700000000000001E-5</v>
+        <v>5.64E-05</v>
       </c>
       <c r="M20">
-        <v>0.128</v>
+        <v>0.29</v>
       </c>
       <c r="N20">
-        <v>-2.774</v>
+        <v>-3.627</v>
       </c>
       <c r="O20">
-        <v>4.2999999999999997E-2</v>
+        <v>0.0694</v>
       </c>
       <c r="P20">
-        <v>100.02200000000001</v>
+        <v>131.975</v>
       </c>
       <c r="Q20">
-        <v>0.59199999999999997</v>
+        <v>0.924</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -2467,122 +2427,122 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F21">
-        <v>229208</v>
+        <v>201655</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>0.16300000000000001</v>
+        <v>0.0411</v>
       </c>
       <c r="J21">
-        <v>0.58299999999999996</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="K21">
-        <v>0.94</v>
+        <v>0.914</v>
       </c>
       <c r="L21">
-        <v>8.2799999999999993E-5</v>
+        <v>0.00105</v>
       </c>
       <c r="M21">
-        <v>0.57699999999999996</v>
+        <v>0.292</v>
       </c>
       <c r="N21">
-        <v>-2.44</v>
+        <v>-5.092</v>
       </c>
       <c r="O21">
-        <v>8.1600000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="P21">
-        <v>136.05600000000001</v>
+        <v>114.039</v>
       </c>
       <c r="Q21">
-        <v>0.49199999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22">
+        <v>155172</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.756</v>
+      </c>
+      <c r="J22">
+        <v>0.532</v>
+      </c>
+      <c r="K22">
+        <v>0.603</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
-      <c r="T21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22">
-        <v>188824</v>
-      </c>
-      <c r="G22">
-        <v>49</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="J22">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="K22">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="L22">
-        <v>7.0600000000000003E-4</v>
-      </c>
       <c r="M22">
-        <v>0.34200000000000003</v>
+        <v>0.323</v>
       </c>
       <c r="N22">
-        <v>-3.391</v>
+        <v>-7.575</v>
       </c>
       <c r="O22">
-        <v>5.5500000000000001E-2</v>
+        <v>0.0545</v>
       </c>
       <c r="P22">
-        <v>129.93799999999999</v>
+        <v>173.955</v>
       </c>
       <c r="Q22">
-        <v>0.92400000000000004</v>
+        <v>0.431</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2591,184 +2551,184 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F23">
-        <v>292306</v>
+        <v>172014</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>5.9400000000000001E-2</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="J23">
-        <v>0.69499999999999995</v>
+        <v>0.772</v>
       </c>
       <c r="K23">
-        <v>0.77400000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="L23">
-        <v>1.7899999999999999E-2</v>
+        <v>7.79E-06</v>
       </c>
       <c r="M23">
-        <v>1.6500000000000001E-2</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="N23">
-        <v>-5.7539999999999996</v>
+        <v>-3.666</v>
       </c>
       <c r="O23">
-        <v>0.23100000000000001</v>
+        <v>0.0444</v>
       </c>
       <c r="P23">
-        <v>175.93299999999999</v>
+        <v>99.971</v>
       </c>
       <c r="Q23">
-        <v>0.88900000000000001</v>
+        <v>0.493</v>
       </c>
       <c r="R23">
         <v>4</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24">
+        <v>188824</v>
+      </c>
+      <c r="G24">
+        <v>49</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0.0205</v>
+      </c>
+      <c r="J24">
+        <v>0.779</v>
+      </c>
+      <c r="K24">
+        <v>0.905</v>
+      </c>
+      <c r="L24">
+        <v>0.000706</v>
+      </c>
+      <c r="M24">
+        <v>0.342</v>
+      </c>
+      <c r="N24">
+        <v>-3.391</v>
+      </c>
+      <c r="O24">
+        <v>0.0555</v>
+      </c>
+      <c r="P24">
+        <v>129.938</v>
+      </c>
+      <c r="Q24">
+        <v>0.924</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
         <v>1</v>
       </c>
-      <c r="T23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24">
-        <v>178352</v>
-      </c>
-      <c r="G24">
-        <v>48</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>0.05</v>
-      </c>
-      <c r="J24">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="K24">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="L24">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M24">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N24">
-        <v>-4.8540000000000001</v>
-      </c>
-      <c r="O24">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="P24">
-        <v>102.982</v>
-      </c>
-      <c r="Q24">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="R24">
-        <v>4</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F25">
-        <v>146063</v>
+        <v>267416</v>
       </c>
       <c r="G25">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3.5099999999999999E-2</v>
+        <v>0.065</v>
       </c>
       <c r="J25">
-        <v>0.629</v>
+        <v>0.78</v>
       </c>
       <c r="K25">
-        <v>0.95699999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="L25">
-        <v>3.7500000000000001E-4</v>
+        <v>3.33E-05</v>
       </c>
       <c r="M25">
-        <v>0.27300000000000002</v>
+        <v>0.507</v>
       </c>
       <c r="N25">
-        <v>-5.4660000000000002</v>
+        <v>-0.86</v>
       </c>
       <c r="O25">
-        <v>5.91E-2</v>
+        <v>0.12</v>
       </c>
       <c r="P25">
-        <v>147.958</v>
+        <v>126.068</v>
       </c>
       <c r="Q25">
-        <v>0.65200000000000002</v>
+        <v>0.793</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2777,60 +2737,60 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F26">
-        <v>267416</v>
+        <v>226615</v>
       </c>
       <c r="G26">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6.5000000000000002E-2</v>
+        <v>0.388</v>
       </c>
       <c r="J26">
-        <v>0.78</v>
+        <v>0.792</v>
       </c>
       <c r="K26">
-        <v>0.97</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="L26">
-        <v>3.3300000000000003E-5</v>
+        <v>2.29E-05</v>
       </c>
       <c r="M26">
-        <v>0.50700000000000001</v>
+        <v>0.0541</v>
       </c>
       <c r="N26">
-        <v>-0.86</v>
+        <v>-3.687</v>
       </c>
       <c r="O26">
-        <v>0.12</v>
+        <v>0.0513</v>
       </c>
       <c r="P26">
-        <v>126.068</v>
+        <v>130.058</v>
       </c>
       <c r="Q26">
-        <v>0.79300000000000004</v>
+        <v>0.868</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -2839,618 +2799,618 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F27">
-        <v>186411</v>
+        <v>322442</v>
       </c>
       <c r="G27">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>2.5699999999999998E-3</v>
+        <v>0.32</v>
       </c>
       <c r="J27">
-        <v>0.74399999999999999</v>
+        <v>0.399</v>
       </c>
       <c r="K27">
-        <v>0.77800000000000002</v>
+        <v>0.907</v>
       </c>
       <c r="L27">
-        <v>5.7499999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.29099999999999998</v>
+        <v>0.346</v>
       </c>
       <c r="N27">
-        <v>-5.2690000000000001</v>
+        <v>-2.945</v>
       </c>
       <c r="O27">
-        <v>6.4500000000000002E-2</v>
+        <v>0.219</v>
       </c>
       <c r="P27">
-        <v>125.01600000000001</v>
+        <v>196.296</v>
       </c>
       <c r="Q27">
-        <v>0.80400000000000005</v>
+        <v>0.797</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F28">
-        <v>247812</v>
+        <v>233274</v>
       </c>
       <c r="G28">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0.36099999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="J28">
-        <v>0.63400000000000001</v>
+        <v>0.654</v>
       </c>
       <c r="K28">
-        <v>0.64800000000000002</v>
+        <v>0.488</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.61899999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="N28">
-        <v>-6.7809999999999997</v>
+        <v>-7.948</v>
       </c>
       <c r="O28">
-        <v>4.1200000000000001E-2</v>
+        <v>0.0561</v>
       </c>
       <c r="P28">
-        <v>95.989000000000004</v>
+        <v>107.986</v>
       </c>
       <c r="Q28">
-        <v>0.66700000000000004</v>
+        <v>0.391</v>
       </c>
       <c r="R28">
         <v>4</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F29">
-        <v>147700</v>
+        <v>285773</v>
       </c>
       <c r="G29">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>1.1299999999999999E-2</v>
+        <v>0.0588</v>
       </c>
       <c r="J29">
-        <v>0.75800000000000001</v>
+        <v>0.737</v>
       </c>
       <c r="K29">
-        <v>0.91100000000000003</v>
+        <v>0.857</v>
       </c>
       <c r="L29">
-        <v>9.5399999999999999E-4</v>
+        <v>1.17E-05</v>
       </c>
       <c r="M29">
-        <v>0.56100000000000005</v>
+        <v>0.281</v>
       </c>
       <c r="N29">
-        <v>-2.569</v>
+        <v>-5.806</v>
       </c>
       <c r="O29">
-        <v>4.8800000000000003E-2</v>
+        <v>0.0451</v>
       </c>
       <c r="P29">
-        <v>111.965</v>
+        <v>126.005</v>
       </c>
       <c r="Q29">
-        <v>0.32900000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R29">
         <v>4</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F30">
-        <v>268888</v>
+        <v>174264</v>
       </c>
       <c r="G30">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
+        <v>0.27</v>
+      </c>
+      <c r="J30">
+        <v>0.79</v>
+      </c>
+      <c r="K30">
+        <v>0.71</v>
+      </c>
+      <c r="L30">
+        <v>0.00013</v>
+      </c>
+      <c r="M30">
+        <v>0.092</v>
+      </c>
+      <c r="N30">
+        <v>-4.795</v>
+      </c>
+      <c r="O30">
+        <v>0.0756</v>
+      </c>
+      <c r="P30">
+        <v>98.014</v>
+      </c>
+      <c r="Q30">
+        <v>0.46</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31">
+        <v>144543</v>
+      </c>
+      <c r="G31">
+        <v>56</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0.0828</v>
+      </c>
+      <c r="J31">
+        <v>0.728</v>
+      </c>
+      <c r="K31">
+        <v>0.961</v>
+      </c>
+      <c r="L31">
+        <v>0.000548</v>
+      </c>
+      <c r="M31">
+        <v>0.0532</v>
+      </c>
+      <c r="N31">
+        <v>-2.442</v>
+      </c>
+      <c r="O31">
+        <v>0.0572</v>
+      </c>
+      <c r="P31">
+        <v>133.001</v>
+      </c>
+      <c r="Q31">
+        <v>0.921</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32">
+        <v>292306</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>0.0594</v>
+      </c>
+      <c r="J32">
+        <v>0.695</v>
+      </c>
+      <c r="K32">
+        <v>0.774</v>
+      </c>
+      <c r="L32">
+        <v>0.0179</v>
+      </c>
+      <c r="M32">
+        <v>0.0165</v>
+      </c>
+      <c r="N32">
+        <v>-5.754</v>
+      </c>
+      <c r="O32">
+        <v>0.231</v>
+      </c>
+      <c r="P32">
+        <v>175.933</v>
+      </c>
+      <c r="Q32">
+        <v>0.889</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33">
+        <v>179657</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.0115</v>
+      </c>
+      <c r="J33">
+        <v>0.721</v>
+      </c>
+      <c r="K33">
+        <v>0.65</v>
+      </c>
+      <c r="L33">
+        <v>0.00014</v>
+      </c>
+      <c r="M33">
+        <v>0.34</v>
+      </c>
+      <c r="N33">
+        <v>-6.95</v>
+      </c>
+      <c r="O33">
+        <v>0.135</v>
+      </c>
+      <c r="P33">
+        <v>130.487</v>
+      </c>
+      <c r="Q33">
+        <v>0.392</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34">
+        <v>302935</v>
+      </c>
+      <c r="G34">
+        <v>69</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.695</v>
+      </c>
+      <c r="K34">
+        <v>0.727</v>
+      </c>
+      <c r="L34">
+        <v>0.000175</v>
+      </c>
+      <c r="M34">
+        <v>0.533</v>
+      </c>
+      <c r="N34">
+        <v>-6.274</v>
+      </c>
+      <c r="O34">
+        <v>0.0323</v>
+      </c>
+      <c r="P34">
+        <v>118.034</v>
+      </c>
+      <c r="Q34">
+        <v>0.864</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35">
+        <v>268888</v>
+      </c>
+      <c r="G35">
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>0.154</v>
       </c>
-      <c r="J30">
+      <c r="J35">
         <v>0.77</v>
       </c>
-      <c r="K30">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="L30">
+      <c r="K35">
+        <v>0.969</v>
+      </c>
+      <c r="L35">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>8.09E-2</v>
-      </c>
-      <c r="N30">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="O30">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="P30">
+      <c r="M35">
+        <v>0.0809</v>
+      </c>
+      <c r="N35">
+        <v>-0.179</v>
+      </c>
+      <c r="O35">
+        <v>0.06610000000000001</v>
+      </c>
+      <c r="P35">
         <v>134.983</v>
       </c>
-      <c r="Q30">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
+      <c r="Q35">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
         <v>1</v>
       </c>
-      <c r="T30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31">
-        <v>306582</v>
-      </c>
-      <c r="G31">
-        <v>59</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>7.6400000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>0.623</v>
-      </c>
-      <c r="K31">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="L31">
-        <v>2.7300000000000001E-6</v>
-      </c>
-      <c r="M31">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="N31">
-        <v>-4.4809999999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="P31">
-        <v>135.96799999999999</v>
-      </c>
-      <c r="Q31">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="R31">
-        <v>4</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32">
-        <v>174264</v>
-      </c>
-      <c r="G32">
-        <v>40</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>0.27</v>
-      </c>
-      <c r="J32">
-        <v>0.79</v>
-      </c>
-      <c r="K32">
-        <v>0.71</v>
-      </c>
-      <c r="L32">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="M32">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="N32">
-        <v>-4.7949999999999999</v>
-      </c>
-      <c r="O32">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="P32">
-        <v>98.013999999999996</v>
-      </c>
-      <c r="Q32">
-        <v>0.46</v>
-      </c>
-      <c r="R32">
-        <v>4</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33">
-        <v>204549</v>
-      </c>
-      <c r="G33">
-        <v>46</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="J33">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="K33">
-        <v>0.76</v>
-      </c>
-      <c r="L33">
-        <v>1.04E-5</v>
-      </c>
-      <c r="M33">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="N33">
-        <v>-5.5519999999999996</v>
-      </c>
-      <c r="O33">
-        <v>0.106</v>
-      </c>
-      <c r="P33">
-        <v>107.01</v>
-      </c>
-      <c r="Q33">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="R33">
-        <v>4</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F34">
-        <v>207393</v>
-      </c>
-      <c r="G34">
-        <v>52</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="J34">
-        <v>0.751</v>
-      </c>
-      <c r="K34">
-        <v>0.81</v>
-      </c>
-      <c r="L34">
-        <v>6.6100000000000002E-6</v>
-      </c>
-      <c r="M34">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="N34">
-        <v>-6.0759999999999996</v>
-      </c>
-      <c r="O34">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="P34">
-        <v>112.004</v>
-      </c>
-      <c r="Q34">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="R34">
-        <v>4</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35">
-        <v>172014</v>
-      </c>
-      <c r="G35">
-        <v>56</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="J35">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="K35">
-        <v>0.748</v>
-      </c>
-      <c r="L35">
-        <v>7.79E-6</v>
-      </c>
-      <c r="M35">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="N35">
-        <v>-3.6659999999999999</v>
-      </c>
-      <c r="O35">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="P35">
-        <v>99.971000000000004</v>
-      </c>
-      <c r="Q35">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="R35">
-        <v>4</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
       <c r="T35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
         <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F36">
-        <v>371933</v>
+        <v>305017</v>
       </c>
       <c r="G36">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>4.8099999999999997E-2</v>
+        <v>0.0873</v>
       </c>
       <c r="J36">
-        <v>0.79</v>
+        <v>0.696</v>
       </c>
       <c r="K36">
-        <v>0.89400000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="L36">
-        <v>1.83E-3</v>
+        <v>0.000345</v>
       </c>
       <c r="M36">
-        <v>5.5E-2</v>
+        <v>0.0944</v>
       </c>
       <c r="N36">
-        <v>-4.2839999999999998</v>
+        <v>-4.942</v>
       </c>
       <c r="O36">
-        <v>9.0300000000000005E-2</v>
+        <v>0.0963</v>
       </c>
       <c r="P36">
-        <v>110.012</v>
+        <v>125.029</v>
       </c>
       <c r="Q36">
-        <v>0.61499999999999999</v>
+        <v>0.743</v>
       </c>
       <c r="R36">
         <v>4</v>
@@ -3459,184 +3419,184 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F37">
-        <v>187953</v>
+        <v>147700</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>5.0599999999999999E-2</v>
+        <v>0.0113</v>
       </c>
       <c r="J37">
-        <v>0.752</v>
+        <v>0.758</v>
       </c>
       <c r="K37">
-        <v>0.94399999999999995</v>
+        <v>0.911</v>
       </c>
       <c r="L37">
+        <v>0.000954</v>
+      </c>
+      <c r="M37">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N37">
+        <v>-2.569</v>
+      </c>
+      <c r="O37">
+        <v>0.0488</v>
+      </c>
+      <c r="P37">
+        <v>111.965</v>
+      </c>
+      <c r="Q37">
+        <v>0.329</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="N37">
-        <v>-3.37</v>
-      </c>
-      <c r="O37">
-        <v>6.83E-2</v>
-      </c>
-      <c r="P37">
-        <v>131.072</v>
-      </c>
-      <c r="Q37">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="R37">
-        <v>4</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
       <c r="T37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F38">
-        <v>322442</v>
+        <v>256678</v>
       </c>
       <c r="G38">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>0.32</v>
+        <v>0.375</v>
       </c>
       <c r="J38">
-        <v>0.39900000000000002</v>
+        <v>0.858</v>
       </c>
       <c r="K38">
-        <v>0.90700000000000003</v>
+        <v>0.833</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.34599999999999997</v>
+        <v>0.112</v>
       </c>
       <c r="N38">
-        <v>-2.9449999999999998</v>
+        <v>-3.747</v>
       </c>
       <c r="O38">
-        <v>0.219</v>
+        <v>0.0471</v>
       </c>
       <c r="P38">
-        <v>196.29599999999999</v>
+        <v>107.977</v>
       </c>
       <c r="Q38">
-        <v>0.79700000000000004</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39">
+        <v>300278</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="T38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39">
-        <v>196138</v>
-      </c>
-      <c r="G39">
-        <v>56</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
       <c r="I39">
-        <v>2.81E-2</v>
+        <v>0.0244</v>
       </c>
       <c r="J39">
-        <v>0.76100000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="K39">
-        <v>0.91100000000000003</v>
+        <v>0.696</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.35E-06</v>
       </c>
       <c r="M39">
-        <v>0.38800000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="N39">
-        <v>-2.5609999999999999</v>
+        <v>-4.648</v>
       </c>
       <c r="O39">
-        <v>0.13600000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="P39">
-        <v>135.018</v>
+        <v>89.991</v>
       </c>
       <c r="Q39">
-        <v>0.46300000000000002</v>
+        <v>0.355</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3645,60 +3605,60 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F40">
-        <v>305017</v>
+        <v>170781</v>
       </c>
       <c r="G40">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>8.7300000000000003E-2</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="J40">
-        <v>0.69599999999999995</v>
+        <v>0.735</v>
       </c>
       <c r="K40">
-        <v>0.95</v>
+        <v>0.831</v>
       </c>
       <c r="L40">
-        <v>3.4499999999999998E-4</v>
+        <v>1.97E-05</v>
       </c>
       <c r="M40">
-        <v>9.4399999999999998E-2</v>
+        <v>0.128</v>
       </c>
       <c r="N40">
-        <v>-4.9420000000000002</v>
+        <v>-2.774</v>
       </c>
       <c r="O40">
-        <v>9.6299999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="P40">
-        <v>125.029</v>
+        <v>100.022</v>
       </c>
       <c r="Q40">
-        <v>0.74299999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="R40">
         <v>4</v>
@@ -3707,60 +3667,60 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F41">
-        <v>176125</v>
+        <v>178619</v>
       </c>
       <c r="G41">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>2.4799999999999999E-2</v>
+        <v>0.441</v>
       </c>
       <c r="J41">
-        <v>0.80400000000000005</v>
+        <v>0.765</v>
       </c>
       <c r="K41">
-        <v>0.91300000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="L41">
-        <v>2.8399999999999999E-5</v>
+        <v>1.33E-05</v>
       </c>
       <c r="M41">
-        <v>0.39100000000000001</v>
+        <v>0.342</v>
       </c>
       <c r="N41">
-        <v>-3.1349999999999998</v>
+        <v>-2.409</v>
       </c>
       <c r="O41">
-        <v>9.3299999999999994E-2</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="P41">
-        <v>119.99299999999999</v>
+        <v>130.011</v>
       </c>
       <c r="Q41">
-        <v>0.54400000000000004</v>
+        <v>0.882</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -3769,246 +3729,246 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F42">
-        <v>192221</v>
+        <v>313500</v>
       </c>
       <c r="G42">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.14000000000000001</v>
+        <v>0.173</v>
       </c>
       <c r="J42">
-        <v>0.68100000000000005</v>
+        <v>0.604</v>
       </c>
       <c r="K42">
-        <v>0.86399999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="L42">
-        <v>8.4900000000000004E-5</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>7.4399999999999994E-2</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="N42">
-        <v>-3.5760000000000001</v>
+        <v>-3.996</v>
       </c>
       <c r="O42">
-        <v>3.6799999999999999E-2</v>
+        <v>0.34</v>
       </c>
       <c r="P42">
-        <v>100.038</v>
+        <v>136.311</v>
       </c>
       <c r="Q42">
-        <v>0.46200000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="R42">
         <v>4</v>
       </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43">
+        <v>371933</v>
+      </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0.0481</v>
+      </c>
+      <c r="J43">
+        <v>0.79</v>
+      </c>
+      <c r="K43">
+        <v>0.894</v>
+      </c>
+      <c r="L43">
+        <v>0.00183</v>
+      </c>
+      <c r="M43">
+        <v>0.055</v>
+      </c>
+      <c r="N43">
+        <v>-4.284</v>
+      </c>
+      <c r="O43">
+        <v>0.09030000000000001</v>
+      </c>
+      <c r="P43">
+        <v>110.012</v>
+      </c>
+      <c r="Q43">
+        <v>0.615</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
         <v>1</v>
       </c>
-      <c r="T42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="T43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44">
+        <v>238798</v>
+      </c>
+      <c r="G44">
         <v>33</v>
       </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
-      <c r="F43">
-        <v>191089</v>
-      </c>
-      <c r="G43">
-        <v>65</v>
-      </c>
-      <c r="H43">
+      <c r="H44">
         <v>10</v>
       </c>
-      <c r="I43">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="J43">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="K43">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="L43">
+      <c r="I44">
+        <v>0.0919</v>
+      </c>
+      <c r="J44">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.84</v>
+      </c>
+      <c r="L44">
+        <v>0.0272</v>
+      </c>
+      <c r="M44">
+        <v>0.189</v>
+      </c>
+      <c r="N44">
+        <v>-5.325</v>
+      </c>
+      <c r="O44">
+        <v>0.131</v>
+      </c>
+      <c r="P44">
+        <v>104.973</v>
+      </c>
+      <c r="Q44">
+        <v>0.784</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
         <v>0</v>
       </c>
-      <c r="M43">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="N43">
-        <v>-0.155</v>
-      </c>
-      <c r="O43">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="P43">
-        <v>108.014</v>
-      </c>
-      <c r="Q43">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="R43">
-        <v>4</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44">
-        <v>144543</v>
-      </c>
-      <c r="G44">
-        <v>56</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="J44">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="K44">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="L44">
-        <v>5.4799999999999998E-4</v>
-      </c>
-      <c r="M44">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="N44">
-        <v>-2.4420000000000002</v>
-      </c>
-      <c r="O44">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="P44">
-        <v>133.001</v>
-      </c>
-      <c r="Q44">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="R44">
-        <v>4</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
       <c r="T44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45">
-        <v>204007</v>
+        <v>352388</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I45">
-        <v>3.7999999999999999E-2</v>
+        <v>0.0289</v>
       </c>
       <c r="J45">
-        <v>0.67600000000000005</v>
+        <v>0.725</v>
       </c>
       <c r="K45">
-        <v>0.98599999999999999</v>
+        <v>0.918</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>5.13E-06</v>
       </c>
       <c r="M45">
-        <v>0.39900000000000002</v>
+        <v>0.602</v>
       </c>
       <c r="N45">
-        <v>-2.8119999999999998</v>
+        <v>-4.875</v>
       </c>
       <c r="O45">
-        <v>9.1800000000000007E-2</v>
+        <v>0.0447</v>
       </c>
       <c r="P45">
-        <v>136</v>
+        <v>107.975</v>
       </c>
       <c r="Q45">
-        <v>0.58499999999999996</v>
+        <v>0.927</v>
       </c>
       <c r="R45">
         <v>4</v>
@@ -4017,370 +3977,370 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F46">
-        <v>296829</v>
+        <v>226504</v>
       </c>
       <c r="G46">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I46">
-        <v>6.0499999999999998E-2</v>
+        <v>0.0992</v>
       </c>
       <c r="J46">
-        <v>0.75900000000000001</v>
+        <v>0.695</v>
       </c>
       <c r="K46">
-        <v>0.90300000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="L46">
-        <v>6.2899999999999999E-6</v>
+        <v>0.00161</v>
       </c>
       <c r="M46">
-        <v>0.23200000000000001</v>
+        <v>0.0834</v>
       </c>
       <c r="N46">
-        <v>-6.1319999999999997</v>
+        <v>-4.925</v>
       </c>
       <c r="O46">
-        <v>7.2499999999999995E-2</v>
+        <v>0.0477</v>
       </c>
       <c r="P46">
-        <v>110.004</v>
+        <v>159.988</v>
       </c>
       <c r="Q46">
-        <v>0.628</v>
+        <v>0.828</v>
       </c>
       <c r="R46">
         <v>4</v>
       </c>
       <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47">
+        <v>247812</v>
+      </c>
+      <c r="G47">
+        <v>51</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0.361</v>
+      </c>
+      <c r="J47">
+        <v>0.634</v>
+      </c>
+      <c r="K47">
+        <v>0.648</v>
+      </c>
+      <c r="L47">
         <v>0</v>
       </c>
-      <c r="T46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="M47">
+        <v>0.619</v>
+      </c>
+      <c r="N47">
+        <v>-6.781</v>
+      </c>
+      <c r="O47">
+        <v>0.0412</v>
+      </c>
+      <c r="P47">
+        <v>95.989</v>
+      </c>
+      <c r="Q47">
+        <v>0.667</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
         <v>253</v>
       </c>
-      <c r="F47">
-        <v>178847</v>
-      </c>
-      <c r="G47">
-        <v>47</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="J47">
-        <v>0.81</v>
-      </c>
-      <c r="K47">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="L47">
-        <v>9.1399999999999999E-5</v>
-      </c>
-      <c r="M47">
-        <v>0.374</v>
-      </c>
-      <c r="N47">
-        <v>-4.4509999999999996</v>
-      </c>
-      <c r="O47">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="P47">
-        <v>123.96599999999999</v>
-      </c>
-      <c r="Q47">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="R47">
-        <v>4</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="T47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" t="s">
-        <v>244</v>
-      </c>
       <c r="F48">
-        <v>313500</v>
+        <v>253160</v>
       </c>
       <c r="G48">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>0.17299999999999999</v>
+        <v>0.0728</v>
       </c>
       <c r="J48">
-        <v>0.60399999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="K48">
-        <v>0.93200000000000005</v>
+        <v>0.801</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>8.6900000000000005E-2</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="N48">
-        <v>-3.996</v>
+        <v>-4.845</v>
       </c>
       <c r="O48">
-        <v>0.34</v>
+        <v>0.0896</v>
       </c>
       <c r="P48">
-        <v>136.31100000000001</v>
+        <v>145.102</v>
       </c>
       <c r="Q48">
-        <v>0.316</v>
+        <v>0.845</v>
       </c>
       <c r="R48">
         <v>4</v>
       </c>
       <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49">
+        <v>204007</v>
+      </c>
+      <c r="G49">
+        <v>37</v>
+      </c>
+      <c r="H49">
         <v>0</v>
       </c>
-      <c r="T48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49">
-        <v>249558</v>
-      </c>
-      <c r="G49">
-        <v>27</v>
-      </c>
-      <c r="H49">
-        <v>11</v>
-      </c>
       <c r="I49">
-        <v>0.18099999999999999</v>
+        <v>0.038</v>
       </c>
       <c r="J49">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="K49">
-        <v>0.85499999999999998</v>
+        <v>0.986</v>
       </c>
       <c r="L49">
-        <v>1.5200000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>6.3299999999999995E-2</v>
+        <v>0.399</v>
       </c>
       <c r="N49">
-        <v>-6.1769999999999996</v>
+        <v>-2.812</v>
       </c>
       <c r="O49">
-        <v>6.7100000000000007E-2</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="P49">
-        <v>101.983</v>
+        <v>136</v>
       </c>
       <c r="Q49">
-        <v>0.72199999999999998</v>
+        <v>0.585</v>
       </c>
       <c r="R49">
         <v>4</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F50">
-        <v>202352</v>
+        <v>196138</v>
       </c>
       <c r="G50">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0.13600000000000001</v>
+        <v>0.0281</v>
       </c>
       <c r="J50">
-        <v>0.76900000000000002</v>
+        <v>0.761</v>
       </c>
       <c r="K50">
-        <v>0.86399999999999999</v>
+        <v>0.911</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>6.8000000000000005E-2</v>
+        <v>0.388</v>
       </c>
       <c r="N50">
-        <v>-4.758</v>
+        <v>-2.561</v>
       </c>
       <c r="O50">
-        <v>5.8099999999999999E-2</v>
+        <v>0.136</v>
       </c>
       <c r="P50">
-        <v>101.961</v>
+        <v>135.018</v>
       </c>
       <c r="Q50">
-        <v>0.69899999999999995</v>
+        <v>0.463</v>
       </c>
       <c r="R50">
         <v>4</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="F51">
-        <v>226615</v>
+        <v>234501</v>
       </c>
       <c r="G51">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I51">
-        <v>0.38800000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="J51">
-        <v>0.79200000000000004</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K51">
-        <v>0.81299999999999994</v>
+        <v>0.864</v>
       </c>
       <c r="L51">
-        <v>2.2900000000000001E-5</v>
+        <v>2.19E-05</v>
       </c>
       <c r="M51">
-        <v>5.4100000000000002E-2</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="N51">
-        <v>-3.6869999999999998</v>
+        <v>-6.983</v>
       </c>
       <c r="O51">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0745</v>
       </c>
       <c r="P51">
-        <v>130.05799999999999</v>
+        <v>108.031</v>
       </c>
       <c r="Q51">
-        <v>0.86799999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="R51">
         <v>4</v>
@@ -4389,60 +4349,60 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F52">
-        <v>226504</v>
+        <v>178847</v>
       </c>
       <c r="G52">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>9.9199999999999997E-2</v>
+        <v>0.0454</v>
       </c>
       <c r="J52">
-        <v>0.69499999999999995</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K52">
-        <v>0.89</v>
+        <v>0.846</v>
       </c>
       <c r="L52">
-        <v>1.6100000000000001E-3</v>
+        <v>9.14E-05</v>
       </c>
       <c r="M52">
-        <v>8.3400000000000002E-2</v>
+        <v>0.374</v>
       </c>
       <c r="N52">
-        <v>-4.9249999999999998</v>
+        <v>-4.451</v>
       </c>
       <c r="O52">
-        <v>4.7699999999999999E-2</v>
+        <v>0.0435</v>
       </c>
       <c r="P52">
-        <v>159.988</v>
+        <v>123.966</v>
       </c>
       <c r="Q52">
-        <v>0.82799999999999996</v>
+        <v>0.885</v>
       </c>
       <c r="R52">
         <v>4</v>
@@ -4451,148 +4411,148 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="F53">
-        <v>152277</v>
+        <v>296829</v>
       </c>
       <c r="G53">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0.43</v>
+        <v>0.0605</v>
       </c>
       <c r="J53">
-        <v>0.66200000000000003</v>
+        <v>0.759</v>
       </c>
       <c r="K53">
-        <v>0.59799999999999998</v>
+        <v>0.903</v>
       </c>
       <c r="L53">
-        <v>3.6799999999999999E-6</v>
+        <v>6.29E-06</v>
       </c>
       <c r="M53">
-        <v>8.7900000000000006E-2</v>
+        <v>0.232</v>
       </c>
       <c r="N53">
-        <v>-7.7530000000000001</v>
+        <v>-6.132</v>
       </c>
       <c r="O53">
-        <v>4.5900000000000003E-2</v>
+        <v>0.0725</v>
       </c>
       <c r="P53">
-        <v>94.025000000000006</v>
+        <v>110.004</v>
       </c>
       <c r="Q53">
-        <v>0.65300000000000002</v>
+        <v>0.628</v>
       </c>
       <c r="R53">
         <v>4</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="F54">
-        <v>199264</v>
+        <v>235357</v>
       </c>
       <c r="G54">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>7.8700000000000006E-2</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="J54">
-        <v>0.72399999999999998</v>
+        <v>0.785</v>
       </c>
       <c r="K54">
-        <v>0.84799999999999998</v>
+        <v>0.789</v>
       </c>
       <c r="L54">
-        <v>9.1600000000000004E-5</v>
+        <v>0.00147</v>
       </c>
       <c r="M54">
-        <v>0.104</v>
+        <v>0.074</v>
       </c>
       <c r="N54">
-        <v>-4.7240000000000002</v>
+        <v>-5.304</v>
       </c>
       <c r="O54">
-        <v>5.2200000000000003E-2</v>
+        <v>0.136</v>
       </c>
       <c r="P54">
-        <v>123.02</v>
+        <v>131.955</v>
       </c>
       <c r="Q54">
-        <v>0.78100000000000003</v>
+        <v>0.497</v>
       </c>
       <c r="R54">
         <v>4</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F55">
         <v>89493</v>
@@ -4604,31 +4564,31 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="J55">
-        <v>0.95899999999999996</v>
+        <v>0.959</v>
       </c>
       <c r="K55">
-        <v>0.65600000000000003</v>
+        <v>0.656</v>
       </c>
       <c r="L55">
-        <v>4.6500000000000004E-6</v>
+        <v>4.65E-06</v>
       </c>
       <c r="M55">
         <v>0.1</v>
       </c>
       <c r="N55">
-        <v>-8.4580000000000002</v>
+        <v>-8.458</v>
       </c>
       <c r="O55">
-        <v>0.11799999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="P55">
         <v>116.98</v>
       </c>
       <c r="Q55">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="R55">
         <v>4</v>
@@ -4637,308 +4597,308 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F56">
-        <v>238798</v>
+        <v>202352</v>
       </c>
       <c r="G56">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>9.1899999999999996E-2</v>
+        <v>0.136</v>
       </c>
       <c r="J56">
-        <v>0.56599999999999995</v>
+        <v>0.769</v>
       </c>
       <c r="K56">
-        <v>0.84</v>
+        <v>0.864</v>
       </c>
       <c r="L56">
-        <v>2.7199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>0.189</v>
+        <v>0.068</v>
       </c>
       <c r="N56">
-        <v>-5.3250000000000002</v>
+        <v>-4.758</v>
       </c>
       <c r="O56">
-        <v>0.13100000000000001</v>
+        <v>0.0581</v>
       </c>
       <c r="P56">
-        <v>104.973</v>
+        <v>101.961</v>
       </c>
       <c r="Q56">
-        <v>0.78400000000000003</v>
+        <v>0.699</v>
       </c>
       <c r="R56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="F57">
-        <v>179657</v>
+        <v>208212</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>0.452</v>
+      </c>
+      <c r="J57">
+        <v>0.761</v>
+      </c>
+      <c r="K57">
+        <v>0.907</v>
+      </c>
+      <c r="L57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>1.15E-2</v>
-      </c>
-      <c r="J57">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="K57">
-        <v>0.65</v>
-      </c>
-      <c r="L57">
-        <v>1.3999999999999999E-4</v>
-      </c>
       <c r="M57">
-        <v>0.34</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="N57">
-        <v>-6.95</v>
+        <v>-3.895</v>
       </c>
       <c r="O57">
-        <v>0.13500000000000001</v>
+        <v>0.211</v>
       </c>
       <c r="P57">
-        <v>130.48699999999999</v>
+        <v>107.004</v>
       </c>
       <c r="Q57">
-        <v>0.39200000000000002</v>
+        <v>0.897</v>
       </c>
       <c r="R57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58">
+        <v>258196</v>
+      </c>
+      <c r="G58">
+        <v>36</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>0.0232</v>
+      </c>
+      <c r="J58">
+        <v>0.727</v>
+      </c>
+      <c r="K58">
+        <v>0.753</v>
+      </c>
+      <c r="L58">
+        <v>6.53E-05</v>
+      </c>
+      <c r="M58">
+        <v>0.145</v>
+      </c>
+      <c r="N58">
+        <v>-9.183</v>
+      </c>
+      <c r="O58">
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="P58">
+        <v>101.973</v>
+      </c>
+      <c r="Q58">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
         <v>0</v>
       </c>
-      <c r="T57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58">
-        <v>253160</v>
-      </c>
-      <c r="G58">
-        <v>59</v>
-      </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="I58">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="J58">
-        <v>0.71</v>
-      </c>
-      <c r="K58">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="L58">
+      <c r="T58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59">
+        <v>249558</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>0.181</v>
+      </c>
+      <c r="J59">
+        <v>0.68</v>
+      </c>
+      <c r="K59">
+        <v>0.855</v>
+      </c>
+      <c r="L59">
+        <v>0.000152</v>
+      </c>
+      <c r="M59">
+        <v>0.0633</v>
+      </c>
+      <c r="N59">
+        <v>-6.177</v>
+      </c>
+      <c r="O59">
+        <v>0.06710000000000001</v>
+      </c>
+      <c r="P59">
+        <v>101.983</v>
+      </c>
+      <c r="Q59">
+        <v>0.722</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
         <v>0</v>
       </c>
-      <c r="M58">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="N58">
-        <v>-4.8449999999999998</v>
-      </c>
-      <c r="O58">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="P58">
-        <v>145.102</v>
-      </c>
-      <c r="Q58">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="R58">
-        <v>4</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F59">
-        <v>178619</v>
-      </c>
-      <c r="G59">
-        <v>46</v>
-      </c>
-      <c r="H59">
-        <v>8</v>
-      </c>
-      <c r="I59">
-        <v>0.441</v>
-      </c>
-      <c r="J59">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K59">
-        <v>0.95</v>
-      </c>
-      <c r="L59">
-        <v>1.33E-5</v>
-      </c>
-      <c r="M59">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="N59">
-        <v>-2.4089999999999998</v>
-      </c>
-      <c r="O59">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="P59">
-        <v>130.011</v>
-      </c>
-      <c r="Q59">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="R59">
-        <v>4</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
       <c r="T59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
         <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F60">
-        <v>215483</v>
+        <v>169727</v>
       </c>
       <c r="G60">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.19500000000000001</v>
+        <v>0.883</v>
       </c>
       <c r="J60">
-        <v>0.79200000000000004</v>
+        <v>0.661</v>
       </c>
       <c r="K60">
-        <v>0.70299999999999996</v>
+        <v>0.198</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.0148</v>
       </c>
       <c r="M60">
-        <v>7.1999999999999995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N60">
-        <v>-4.343</v>
+        <v>-17.778</v>
       </c>
       <c r="O60">
-        <v>3.6799999999999999E-2</v>
+        <v>0.0305</v>
       </c>
       <c r="P60">
-        <v>105.995</v>
+        <v>122.017</v>
       </c>
       <c r="Q60">
-        <v>0.63400000000000001</v>
+        <v>0.177</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -4947,60 +4907,60 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F61">
-        <v>256678</v>
+        <v>186411</v>
       </c>
       <c r="G61">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>0.375</v>
+        <v>0.00257</v>
       </c>
       <c r="J61">
-        <v>0.85799999999999998</v>
+        <v>0.744</v>
       </c>
       <c r="K61">
-        <v>0.83299999999999996</v>
+        <v>0.778</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.000575</v>
       </c>
       <c r="M61">
-        <v>0.112</v>
+        <v>0.291</v>
       </c>
       <c r="N61">
-        <v>-3.7469999999999999</v>
+        <v>-5.269</v>
       </c>
       <c r="O61">
-        <v>4.7100000000000003E-2</v>
+        <v>0.0645</v>
       </c>
       <c r="P61">
-        <v>107.977</v>
+        <v>125.016</v>
       </c>
       <c r="Q61">
-        <v>0.69299999999999995</v>
+        <v>0.804</v>
       </c>
       <c r="R61">
         <v>4</v>
@@ -5009,60 +4969,60 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" t="s">
-        <v>252</v>
-      </c>
       <c r="F62">
-        <v>234501</v>
+        <v>187953</v>
       </c>
       <c r="G62">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0.13400000000000001</v>
+        <v>0.0506</v>
       </c>
       <c r="J62">
-        <v>0.80800000000000005</v>
+        <v>0.752</v>
       </c>
       <c r="K62">
-        <v>0.86399999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="L62">
-        <v>2.19E-5</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>6.9099999999999995E-2</v>
+        <v>0.225</v>
       </c>
       <c r="N62">
-        <v>-6.9829999999999997</v>
+        <v>-3.37</v>
       </c>
       <c r="O62">
-        <v>7.4499999999999997E-2</v>
+        <v>0.0683</v>
       </c>
       <c r="P62">
-        <v>108.03100000000001</v>
+        <v>131.072</v>
       </c>
       <c r="Q62">
-        <v>0.871</v>
+        <v>0.737</v>
       </c>
       <c r="R62">
         <v>4</v>
@@ -5071,60 +5031,60 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F63">
-        <v>208212</v>
+        <v>192221</v>
       </c>
       <c r="G63">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0.45200000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J63">
-        <v>0.76100000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="K63">
-        <v>0.90700000000000003</v>
+        <v>0.864</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>8.49E-05</v>
       </c>
       <c r="M63">
-        <v>6.3700000000000007E-2</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="N63">
-        <v>-3.895</v>
+        <v>-3.576</v>
       </c>
       <c r="O63">
-        <v>0.21099999999999999</v>
+        <v>0.0368</v>
       </c>
       <c r="P63">
-        <v>107.004</v>
+        <v>100.038</v>
       </c>
       <c r="Q63">
-        <v>0.89700000000000002</v>
+        <v>0.462</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -5133,60 +5093,60 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64">
+        <v>204549</v>
+      </c>
+      <c r="G64">
         <v>46</v>
       </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64">
-        <v>233274</v>
-      </c>
-      <c r="G64">
-        <v>40</v>
-      </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0.23</v>
+        <v>0.0116</v>
       </c>
       <c r="J64">
-        <v>0.65400000000000003</v>
+        <v>0.829</v>
       </c>
       <c r="K64">
-        <v>0.48799999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1.04E-05</v>
       </c>
       <c r="M64">
-        <v>0.113</v>
+        <v>0.336</v>
       </c>
       <c r="N64">
-        <v>-7.9480000000000004</v>
+        <v>-5.552</v>
       </c>
       <c r="O64">
-        <v>5.6099999999999997E-2</v>
+        <v>0.106</v>
       </c>
       <c r="P64">
-        <v>107.986</v>
+        <v>107.01</v>
       </c>
       <c r="Q64">
-        <v>0.39100000000000001</v>
+        <v>0.773</v>
       </c>
       <c r="R64">
         <v>4</v>
@@ -5195,13 +5155,72 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>266</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65">
+        <v>220382</v>
+      </c>
+      <c r="G65">
+        <v>45</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>0.404</v>
+      </c>
+      <c r="J65">
+        <v>0.718</v>
+      </c>
+      <c r="K65">
+        <v>0.83</v>
+      </c>
+      <c r="L65">
+        <v>2.5E-05</v>
+      </c>
+      <c r="M65">
+        <v>0.124</v>
+      </c>
+      <c r="N65">
+        <v>-5.488</v>
+      </c>
+      <c r="O65">
+        <v>0.0505</v>
+      </c>
+      <c r="P65">
+        <v>105.012</v>
+      </c>
+      <c r="Q65">
+        <v>0.771</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T64">
-    <sortCondition ref="B1:B64"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>